--- a/second_pass/wild_calc_tseries.xlsx
+++ b/second_pass/wild_calc_tseries.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t xml:space="preserve">Year</t>
   </si>
@@ -36,12 +36,6 @@
   </si>
   <si>
     <t xml:space="preserve">NC_potential</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WR_utility</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NC_utility</t>
   </si>
   <si>
     <t xml:space="preserve">Wild birds</t>
@@ -413,25 +407,19 @@
       <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" t="s">
-        <v>9</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
         <v>1970</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C2" t="n">
         <v>89237901662.4462</v>
       </c>
       <c r="D2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E2" t="n">
         <v>0.327</v>
@@ -444,12 +432,6 @@
       </c>
       <c r="H2" t="n">
         <v>0.0249123379270978</v>
-      </c>
-      <c r="I2" t="n">
-        <v>-58361587687.2398</v>
-      </c>
-      <c r="J2" t="n">
-        <v>-4446249524.23996</v>
       </c>
     </row>
     <row r="3">
@@ -457,13 +439,13 @@
         <v>1971</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C3" t="n">
         <v>89177399273.1631</v>
       </c>
       <c r="D3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E3" t="n">
         <v>0.327</v>
@@ -476,12 +458,6 @@
       </c>
       <c r="H3" t="n">
         <v>0.0249123379270978</v>
-      </c>
-      <c r="I3" t="n">
-        <v>-58322019124.6487</v>
-      </c>
-      <c r="J3" t="n">
-        <v>-4443235012.30552</v>
       </c>
     </row>
     <row r="4">
@@ -489,13 +465,13 @@
         <v>1972</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C4" t="n">
         <v>89113784156.2687</v>
       </c>
       <c r="D4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E4" t="n">
         <v>0.327</v>
@@ -508,12 +484,6 @@
       </c>
       <c r="H4" t="n">
         <v>0.0249123379270978</v>
-      </c>
-      <c r="I4" t="n">
-        <v>-58280414838.1997</v>
-      </c>
-      <c r="J4" t="n">
-        <v>-4440065409.72684</v>
       </c>
     </row>
     <row r="5">
@@ -521,13 +491,13 @@
         <v>1973</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C5" t="n">
         <v>89046429251.9857</v>
       </c>
       <c r="D5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E5" t="n">
         <v>0.327</v>
@@ -540,12 +510,6 @@
       </c>
       <c r="H5" t="n">
         <v>0.0249123379270978</v>
-      </c>
-      <c r="I5" t="n">
-        <v>-58236364730.7987</v>
-      </c>
-      <c r="J5" t="n">
-        <v>-4436709473.45375</v>
       </c>
     </row>
     <row r="6">
@@ -553,13 +517,13 @@
         <v>1974</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C6" t="n">
         <v>88966423856.492</v>
       </c>
       <c r="D6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E6" t="n">
         <v>0.327</v>
@@ -572,12 +536,6 @@
       </c>
       <c r="H6" t="n">
         <v>0.0249123379270978</v>
-      </c>
-      <c r="I6" t="n">
-        <v>-58184041202.1458</v>
-      </c>
-      <c r="J6" t="n">
-        <v>-4432723230.55669</v>
       </c>
     </row>
     <row r="7">
@@ -585,13 +543,13 @@
         <v>1975</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C7" t="n">
         <v>88862828404.2981</v>
       </c>
       <c r="D7" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E7" t="n">
         <v>0.327</v>
@@ -604,12 +562,6 @@
       </c>
       <c r="H7" t="n">
         <v>0.0249123379270978</v>
-      </c>
-      <c r="I7" t="n">
-        <v>-58116289776.411</v>
-      </c>
-      <c r="J7" t="n">
-        <v>-4427561620.73115</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +569,13 @@
         <v>1976</v>
       </c>
       <c r="B8" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C8" t="n">
         <v>88748021550.7661</v>
       </c>
       <c r="D8" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E8" t="n">
         <v>0.327</v>
@@ -636,12 +588,6 @@
       </c>
       <c r="H8" t="n">
         <v>0.0249123379270978</v>
-      </c>
-      <c r="I8" t="n">
-        <v>-58041206094.201</v>
-      </c>
-      <c r="J8" t="n">
-        <v>-4421841406.46808</v>
       </c>
     </row>
     <row r="9">
@@ -649,13 +595,13 @@
         <v>1977</v>
       </c>
       <c r="B9" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C9" t="n">
         <v>88624134048.9917</v>
       </c>
       <c r="D9" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E9" t="n">
         <v>0.327</v>
@@ -668,12 +614,6 @@
       </c>
       <c r="H9" t="n">
         <v>0.0249123379270978</v>
-      </c>
-      <c r="I9" t="n">
-        <v>-57960183668.0406</v>
-      </c>
-      <c r="J9" t="n">
-        <v>-4415668751.84979</v>
       </c>
     </row>
     <row r="10">
@@ -681,13 +621,13 @@
         <v>1978</v>
       </c>
       <c r="B10" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C10" t="n">
         <v>88501811855.0656</v>
       </c>
       <c r="D10" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E10" t="n">
         <v>0.327</v>
@@ -700,12 +640,6 @@
       </c>
       <c r="H10" t="n">
         <v>0.0249123379270978</v>
-      </c>
-      <c r="I10" t="n">
-        <v>-57880184953.2129</v>
-      </c>
-      <c r="J10" t="n">
-        <v>-4409574088.18764</v>
       </c>
     </row>
     <row r="11">
@@ -713,13 +647,13 @@
         <v>1979</v>
       </c>
       <c r="B11" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C11" t="n">
         <v>88379830271.913</v>
       </c>
       <c r="D11" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E11" t="n">
         <v>0.327</v>
@@ -732,12 +666,6 @@
       </c>
       <c r="H11" t="n">
         <v>0.0249123379270978</v>
-      </c>
-      <c r="I11" t="n">
-        <v>-57800408997.8311</v>
-      </c>
-      <c r="J11" t="n">
-        <v>-4403496395.34688</v>
       </c>
     </row>
     <row r="12">
@@ -745,13 +673,13 @@
         <v>1980</v>
       </c>
       <c r="B12" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C12" t="n">
         <v>88265471035.512</v>
       </c>
       <c r="D12" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E12" t="n">
         <v>0.327</v>
@@ -764,12 +692,6 @@
       </c>
       <c r="H12" t="n">
         <v>0.0249123379270978</v>
-      </c>
-      <c r="I12" t="n">
-        <v>-57725618057.2249</v>
-      </c>
-      <c r="J12" t="n">
-        <v>-4397798483.46227</v>
       </c>
     </row>
     <row r="13">
@@ -777,13 +699,13 @@
         <v>1981</v>
       </c>
       <c r="B13" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C13" t="n">
         <v>88154037304.6441</v>
       </c>
       <c r="D13" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E13" t="n">
         <v>0.327</v>
@@ -796,12 +718,6 @@
       </c>
       <c r="H13" t="n">
         <v>0.0249123379270978</v>
-      </c>
-      <c r="I13" t="n">
-        <v>-57652740397.2372</v>
-      </c>
-      <c r="J13" t="n">
-        <v>-4392246333.94255</v>
       </c>
     </row>
     <row r="14">
@@ -809,13 +725,13 @@
         <v>1982</v>
       </c>
       <c r="B14" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C14" t="n">
         <v>88049707810.826</v>
       </c>
       <c r="D14" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E14" t="n">
         <v>0.327</v>
@@ -828,12 +744,6 @@
       </c>
       <c r="H14" t="n">
         <v>0.0249123379270978</v>
-      </c>
-      <c r="I14" t="n">
-        <v>-57584508908.2802</v>
-      </c>
-      <c r="J14" t="n">
-        <v>-4387048150.73104</v>
       </c>
     </row>
     <row r="15">
@@ -841,13 +751,13 @@
         <v>1983</v>
       </c>
       <c r="B15" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C15" t="n">
         <v>87954278980.7459</v>
       </c>
       <c r="D15" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E15" t="n">
         <v>0.327</v>
@@ -860,12 +770,6 @@
       </c>
       <c r="H15" t="n">
         <v>0.0249123379270978</v>
-      </c>
-      <c r="I15" t="n">
-        <v>-57522098453.4078</v>
-      </c>
-      <c r="J15" t="n">
-        <v>-4382293440.20515</v>
       </c>
     </row>
     <row r="16">
@@ -873,13 +777,13 @@
         <v>1984</v>
       </c>
       <c r="B16" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C16" t="n">
         <v>87859155265.4687</v>
       </c>
       <c r="D16" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E16" t="n">
         <v>0.327</v>
@@ -892,12 +796,6 @@
       </c>
       <c r="H16" t="n">
         <v>0.0249123379270978</v>
-      </c>
-      <c r="I16" t="n">
-        <v>-57459887543.6166</v>
-      </c>
-      <c r="J16" t="n">
-        <v>-4377553931.92542</v>
       </c>
     </row>
     <row r="17">
@@ -905,13 +803,13 @@
         <v>1985</v>
       </c>
       <c r="B17" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C17" t="n">
         <v>87772244708.405</v>
       </c>
       <c r="D17" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E17" t="n">
         <v>0.327</v>
@@ -924,12 +822,6 @@
       </c>
       <c r="H17" t="n">
         <v>0.0249123379270978</v>
-      </c>
-      <c r="I17" t="n">
-        <v>-57403048039.2969</v>
-      </c>
-      <c r="J17" t="n">
-        <v>-4373223641.59141</v>
       </c>
     </row>
     <row r="18">
@@ -937,13 +829,13 @@
         <v>1986</v>
       </c>
       <c r="B18" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C18" t="n">
         <v>87688555180.5857</v>
       </c>
       <c r="D18" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E18" t="n">
         <v>0.327</v>
@@ -956,12 +848,6 @@
       </c>
       <c r="H18" t="n">
         <v>0.0249123379270978</v>
-      </c>
-      <c r="I18" t="n">
-        <v>-57348315088.103</v>
-      </c>
-      <c r="J18" t="n">
-        <v>-4369053837.99542</v>
       </c>
     </row>
     <row r="19">
@@ -969,13 +855,13 @@
         <v>1987</v>
       </c>
       <c r="B19" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C19" t="n">
         <v>87606130640.9074</v>
       </c>
       <c r="D19" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E19" t="n">
         <v>0.327</v>
@@ -988,12 +874,6 @@
       </c>
       <c r="H19" t="n">
         <v>0.0249123379270978</v>
-      </c>
-      <c r="I19" t="n">
-        <v>-57294409439.1534</v>
-      </c>
-      <c r="J19" t="n">
-        <v>-4364947062.02352</v>
       </c>
     </row>
     <row r="20">
@@ -1001,13 +881,13 @@
         <v>1988</v>
       </c>
       <c r="B20" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C20" t="n">
         <v>87530195821.6049</v>
       </c>
       <c r="D20" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E20" t="n">
         <v>0.327</v>
@@ -1020,12 +900,6 @@
       </c>
       <c r="H20" t="n">
         <v>0.0249123379270978</v>
-      </c>
-      <c r="I20" t="n">
-        <v>-57244748067.3296</v>
-      </c>
-      <c r="J20" t="n">
-        <v>-4361163634.26573</v>
       </c>
     </row>
     <row r="21">
@@ -1033,13 +907,13 @@
         <v>1989</v>
       </c>
       <c r="B21" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C21" t="n">
         <v>87455691320.8318</v>
       </c>
       <c r="D21" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E21" t="n">
         <v>0.327</v>
@@ -1052,12 +926,6 @@
       </c>
       <c r="H21" t="n">
         <v>0.0249123379270978</v>
-      </c>
-      <c r="I21" t="n">
-        <v>-57196022123.824</v>
-      </c>
-      <c r="J21" t="n">
-        <v>-4357451471.66503</v>
       </c>
     </row>
     <row r="22">
@@ -1065,13 +933,13 @@
         <v>1990</v>
       </c>
       <c r="B22" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C22" t="n">
         <v>87384904357.3535</v>
       </c>
       <c r="D22" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E22" t="n">
         <v>0.327</v>
@@ -1084,12 +952,6 @@
       </c>
       <c r="H22" t="n">
         <v>0.0249123379270978</v>
-      </c>
-      <c r="I22" t="n">
-        <v>-57149727449.7092</v>
-      </c>
-      <c r="J22" t="n">
-        <v>-4353924534.15502</v>
       </c>
     </row>
     <row r="23">
@@ -1097,13 +959,13 @@
         <v>1991</v>
       </c>
       <c r="B23" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C23" t="n">
         <v>87320487264.9076</v>
       </c>
       <c r="D23" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E23" t="n">
         <v>0.327</v>
@@ -1116,12 +978,6 @@
       </c>
       <c r="H23" t="n">
         <v>0.0249123379270978</v>
-      </c>
-      <c r="I23" t="n">
-        <v>-57107598671.2496</v>
-      </c>
-      <c r="J23" t="n">
-        <v>-4350714973.40443</v>
       </c>
     </row>
     <row r="24">
@@ -1129,13 +985,13 @@
         <v>1992</v>
       </c>
       <c r="B24" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C24" t="n">
         <v>87254636327.4598</v>
       </c>
       <c r="D24" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E24" t="n">
         <v>0.327</v>
@@ -1148,12 +1004,6 @@
       </c>
       <c r="H24" t="n">
         <v>0.0249123379270978</v>
-      </c>
-      <c r="I24" t="n">
-        <v>-57064532158.1587</v>
-      </c>
-      <c r="J24" t="n">
-        <v>-4347433971.7914</v>
       </c>
     </row>
     <row r="25">
@@ -1161,13 +1011,13 @@
         <v>1993</v>
       </c>
       <c r="B25" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C25" t="n">
         <v>87193590412.1505</v>
       </c>
       <c r="D25" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E25" t="n">
         <v>0.327</v>
@@ -1180,12 +1030,6 @@
       </c>
       <c r="H25" t="n">
         <v>0.0249123379270978</v>
-      </c>
-      <c r="I25" t="n">
-        <v>-57024608129.5465</v>
-      </c>
-      <c r="J25" t="n">
-        <v>-4344392378.84889</v>
       </c>
     </row>
     <row r="26">
@@ -1193,13 +1037,13 @@
         <v>1994</v>
       </c>
       <c r="B26" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C26" t="n">
         <v>87131257777.086</v>
       </c>
       <c r="D26" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E26" t="n">
         <v>0.327</v>
@@ -1212,12 +1056,6 @@
       </c>
       <c r="H26" t="n">
         <v>0.0249123379270978</v>
-      </c>
-      <c r="I26" t="n">
-        <v>-56983842586.2142</v>
-      </c>
-      <c r="J26" t="n">
-        <v>-4341286675.51166</v>
       </c>
     </row>
     <row r="27">
@@ -1225,13 +1063,13 @@
         <v>1995</v>
       </c>
       <c r="B27" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C27" t="n">
         <v>87072448513.0845</v>
       </c>
       <c r="D27" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E27" t="n">
         <v>0.327</v>
@@ -1244,12 +1082,6 @@
       </c>
       <c r="H27" t="n">
         <v>0.0249123379270978</v>
-      </c>
-      <c r="I27" t="n">
-        <v>-56945381327.5573</v>
-      </c>
-      <c r="J27" t="n">
-        <v>-4338356522.99557</v>
       </c>
     </row>
     <row r="28">
@@ -1257,13 +1089,13 @@
         <v>1996</v>
       </c>
       <c r="B28" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C28" t="n">
         <v>87012121609.9935</v>
       </c>
       <c r="D28" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E28" t="n">
         <v>0.327</v>
@@ -1276,12 +1108,6 @@
       </c>
       <c r="H28" t="n">
         <v>0.0249123379270978</v>
-      </c>
-      <c r="I28" t="n">
-        <v>-56905927532.9357</v>
-      </c>
-      <c r="J28" t="n">
-        <v>-4335350754.60377</v>
       </c>
     </row>
     <row r="29">
@@ -1289,13 +1115,13 @@
         <v>1997</v>
       </c>
       <c r="B29" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C29" t="n">
         <v>86956457879.1018</v>
       </c>
       <c r="D29" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E29" t="n">
         <v>0.327</v>
@@ -1308,12 +1134,6 @@
       </c>
       <c r="H29" t="n">
         <v>0.0249123379270978</v>
-      </c>
-      <c r="I29" t="n">
-        <v>-56869523452.9326</v>
-      </c>
-      <c r="J29" t="n">
-        <v>-4332577327.25525</v>
       </c>
     </row>
     <row r="30">
@@ -1321,13 +1141,13 @@
         <v>1998</v>
       </c>
       <c r="B30" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C30" t="n">
         <v>86900056261.578</v>
       </c>
       <c r="D30" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E30" t="n">
         <v>0.327</v>
@@ -1340,12 +1160,6 @@
       </c>
       <c r="H30" t="n">
         <v>0.0249123379270978</v>
-      </c>
-      <c r="I30" t="n">
-        <v>-56832636795.072</v>
-      </c>
-      <c r="J30" t="n">
-        <v>-4329767134.94448</v>
       </c>
     </row>
     <row r="31">
@@ -1353,13 +1167,13 @@
         <v>1999</v>
       </c>
       <c r="B31" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C31" t="n">
         <v>86844396276.3816</v>
       </c>
       <c r="D31" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E31" t="n">
         <v>0.327</v>
@@ -1372,12 +1186,6 @@
       </c>
       <c r="H31" t="n">
         <v>0.0249123379270978</v>
-      </c>
-      <c r="I31" t="n">
-        <v>-56796235164.7536</v>
-      </c>
-      <c r="J31" t="n">
-        <v>-4326993894.22402</v>
       </c>
     </row>
     <row r="32">
@@ -1385,13 +1193,13 @@
         <v>2000</v>
       </c>
       <c r="B32" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C32" t="n">
         <v>86793807855.5196</v>
       </c>
       <c r="D32" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E32" t="n">
         <v>0.327</v>
@@ -1404,12 +1212,6 @@
       </c>
       <c r="H32" t="n">
         <v>0.0249123379270978</v>
-      </c>
-      <c r="I32" t="n">
-        <v>-56763150337.5098</v>
-      </c>
-      <c r="J32" t="n">
-        <v>-4324473342.5526</v>
       </c>
     </row>
     <row r="33">
@@ -1417,13 +1219,13 @@
         <v>2001</v>
       </c>
       <c r="B33" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C33" t="n">
         <v>86743965542.946</v>
       </c>
       <c r="D33" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E33" t="n">
         <v>0.327</v>
@@ -1436,12 +1238,6 @@
       </c>
       <c r="H33" t="n">
         <v>0.0249123379270978</v>
-      </c>
-      <c r="I33" t="n">
-        <v>-56730553465.0867</v>
-      </c>
-      <c r="J33" t="n">
-        <v>-4321989965.48479</v>
       </c>
     </row>
     <row r="34">
@@ -1449,13 +1245,13 @@
         <v>2002</v>
       </c>
       <c r="B34" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C34" t="n">
         <v>86700000000</v>
       </c>
       <c r="D34" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E34" t="n">
         <v>0.327</v>
@@ -1468,12 +1264,6 @@
       </c>
       <c r="H34" t="n">
         <v>0.0249123379270978</v>
-      </c>
-      <c r="I34" t="n">
-        <v>-56701800000</v>
-      </c>
-      <c r="J34" t="n">
-        <v>-4319799396.55875</v>
       </c>
     </row>
     <row r="35">
@@ -1481,13 +1271,13 @@
         <v>2003</v>
       </c>
       <c r="B35" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C35" t="n">
         <v>86658171835.8845</v>
       </c>
       <c r="D35" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E35" t="n">
         <v>0.327</v>
@@ -1500,12 +1290,6 @@
       </c>
       <c r="H35" t="n">
         <v>0.0249123379270978</v>
-      </c>
-      <c r="I35" t="n">
-        <v>-56674444380.6684</v>
-      </c>
-      <c r="J35" t="n">
-        <v>-4317715321.84012</v>
       </c>
     </row>
     <row r="36">
@@ -1513,13 +1297,13 @@
         <v>2004</v>
       </c>
       <c r="B36" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C36" t="n">
         <v>86618773359.2552</v>
       </c>
       <c r="D36" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E36" t="n">
         <v>0.327</v>
@@ -1532,12 +1316,6 @@
       </c>
       <c r="H36" t="n">
         <v>0.0249123379270978</v>
-      </c>
-      <c r="I36" t="n">
-        <v>-56648677776.9529</v>
-      </c>
-      <c r="J36" t="n">
-        <v>-4315752305.51292</v>
       </c>
     </row>
     <row r="37">
@@ -1545,13 +1323,13 @@
         <v>2005</v>
       </c>
       <c r="B37" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C37" t="n">
         <v>86582993272.4984</v>
       </c>
       <c r="D37" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E37" t="n">
         <v>0.327</v>
@@ -1564,12 +1342,6 @@
       </c>
       <c r="H37" t="n">
         <v>0.0249123379270978</v>
-      </c>
-      <c r="I37" t="n">
-        <v>-56625277600.2139</v>
-      </c>
-      <c r="J37" t="n">
-        <v>-4313969574.28823</v>
       </c>
     </row>
     <row r="38">
@@ -1577,13 +1349,13 @@
         <v>2006</v>
       </c>
       <c r="B38" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C38" t="n">
         <v>86546081590.4626</v>
       </c>
       <c r="D38" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E38" t="n">
         <v>0.327</v>
@@ -1596,12 +1368,6 @@
       </c>
       <c r="H38" t="n">
         <v>0.0249123379270978</v>
-      </c>
-      <c r="I38" t="n">
-        <v>-56601137360.1626</v>
-      </c>
-      <c r="J38" t="n">
-        <v>-4312130461.69556</v>
       </c>
     </row>
     <row r="39">
@@ -1609,13 +1375,13 @@
         <v>2007</v>
       </c>
       <c r="B39" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C39" t="n">
         <v>86514065056.1879</v>
       </c>
       <c r="D39" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E39" t="n">
         <v>0.327</v>
@@ -1628,12 +1394,6 @@
       </c>
       <c r="H39" t="n">
         <v>0.0249123379270978</v>
-      </c>
-      <c r="I39" t="n">
-        <v>-56580198546.7469</v>
-      </c>
-      <c r="J39" t="n">
-        <v>-4310535248.25335</v>
       </c>
     </row>
     <row r="40">
@@ -1641,13 +1401,13 @@
         <v>2008</v>
       </c>
       <c r="B40" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C40" t="n">
         <v>86486508342.4116</v>
       </c>
       <c r="D40" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E40" t="n">
         <v>0.327</v>
@@ -1660,12 +1420,6 @@
       </c>
       <c r="H40" t="n">
         <v>0.0249123379270978</v>
-      </c>
-      <c r="I40" t="n">
-        <v>-56562176455.9372</v>
-      </c>
-      <c r="J40" t="n">
-        <v>-4309162243.92184</v>
       </c>
     </row>
     <row r="41">
@@ -1673,13 +1427,13 @@
         <v>2009</v>
       </c>
       <c r="B41" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C41" t="n">
         <v>86459137015.5757</v>
       </c>
       <c r="D41" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E41" t="n">
         <v>0.327</v>
@@ -1692,12 +1446,6 @@
       </c>
       <c r="H41" t="n">
         <v>0.0249123379270978</v>
-      </c>
-      <c r="I41" t="n">
-        <v>-56544275608.1865</v>
-      </c>
-      <c r="J41" t="n">
-        <v>-4307798476.43454</v>
       </c>
     </row>
     <row r="42">
@@ -1705,13 +1453,13 @@
         <v>2010</v>
       </c>
       <c r="B42" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C42" t="n">
         <v>86433936050.971</v>
       </c>
       <c r="D42" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E42" t="n">
         <v>0.327</v>
@@ -1724,12 +1472,6 @@
       </c>
       <c r="H42" t="n">
         <v>0.0249123379270978</v>
-      </c>
-      <c r="I42" t="n">
-        <v>-56527794177.3351</v>
-      </c>
-      <c r="J42" t="n">
-        <v>-4306542846.5419</v>
       </c>
     </row>
     <row r="43">
@@ -1737,13 +1479,13 @@
         <v>2011</v>
       </c>
       <c r="B43" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C43" t="n">
         <v>86409173089.9433</v>
       </c>
       <c r="D43" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E43" t="n">
         <v>0.327</v>
@@ -1756,12 +1498,6 @@
       </c>
       <c r="H43" t="n">
         <v>0.0249123379270978</v>
-      </c>
-      <c r="I43" t="n">
-        <v>-56511599200.823</v>
-      </c>
-      <c r="J43" t="n">
-        <v>-4305309040.0355</v>
       </c>
     </row>
     <row r="44">
@@ -1769,13 +1505,13 @@
         <v>2012</v>
       </c>
       <c r="B44" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C44" t="n">
         <v>86386528562.92</v>
       </c>
       <c r="D44" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E44" t="n">
         <v>0.327</v>
@@ -1788,12 +1524,6 @@
       </c>
       <c r="H44" t="n">
         <v>0.0249123379270978</v>
-      </c>
-      <c r="I44" t="n">
-        <v>-56496789680.1497</v>
-      </c>
-      <c r="J44" t="n">
-        <v>-4304180783.81669</v>
       </c>
     </row>
     <row r="45">
@@ -1801,13 +1531,13 @@
         <v>2013</v>
       </c>
       <c r="B45" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C45" t="n">
         <v>86366650938.9221</v>
       </c>
       <c r="D45" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E45" t="n">
         <v>0.327</v>
@@ -1820,12 +1550,6 @@
       </c>
       <c r="H45" t="n">
         <v>0.0249123379270978</v>
-      </c>
-      <c r="I45" t="n">
-        <v>-56483789714.0551</v>
-      </c>
-      <c r="J45" t="n">
-        <v>-4303190387.64425</v>
       </c>
     </row>
     <row r="46">
@@ -1833,13 +1557,13 @@
         <v>2014</v>
       </c>
       <c r="B46" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C46" t="n">
         <v>86347422731.901</v>
       </c>
       <c r="D46" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E46" t="n">
         <v>0.327</v>
@@ -1852,12 +1576,6 @@
       </c>
       <c r="H46" t="n">
         <v>0.0249123379270978</v>
-      </c>
-      <c r="I46" t="n">
-        <v>-56471214466.6633</v>
-      </c>
-      <c r="J46" t="n">
-        <v>-4302232348.46216</v>
       </c>
     </row>
     <row r="47">
@@ -1865,13 +1583,13 @@
         <v>2015</v>
       </c>
       <c r="B47" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C47" t="n">
         <v>86334905567.0696</v>
       </c>
       <c r="D47" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E47" t="n">
         <v>0.327</v>
@@ -1884,12 +1602,6 @@
       </c>
       <c r="H47" t="n">
         <v>0.0249123379270978</v>
-      </c>
-      <c r="I47" t="n">
-        <v>-56463028240.8635</v>
-      </c>
-      <c r="J47" t="n">
-        <v>-4301608684.78183</v>
       </c>
     </row>
     <row r="48">
@@ -1897,13 +1609,13 @@
         <v>2016</v>
       </c>
       <c r="B48" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C48" t="n">
         <v>86334342245.0447</v>
       </c>
       <c r="D48" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E48" t="n">
         <v>0.327</v>
@@ -1916,12 +1628,6 @@
       </c>
       <c r="H48" t="n">
         <v>0.0249123379270978</v>
-      </c>
-      <c r="I48" t="n">
-        <v>-56462659828.2592</v>
-      </c>
-      <c r="J48" t="n">
-        <v>-4301580617.44453</v>
       </c>
     </row>
     <row r="49">
@@ -1929,13 +1635,13 @@
         <v>2017</v>
       </c>
       <c r="B49" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C49" t="n">
         <v>86328346247.7782</v>
       </c>
       <c r="D49" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E49" t="n">
         <v>0.327</v>
@@ -1948,12 +1654,6 @@
       </c>
       <c r="H49" t="n">
         <v>0.0249123379270978</v>
-      </c>
-      <c r="I49" t="n">
-        <v>-56458738446.047</v>
-      </c>
-      <c r="J49" t="n">
-        <v>-4301281868.82431</v>
       </c>
     </row>
     <row r="50">
@@ -1961,13 +1661,13 @@
         <v>1950</v>
       </c>
       <c r="B50" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C50" t="n">
         <v>31625996426.6674</v>
       </c>
       <c r="D50" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E50" t="n">
         <v>0.512</v>
@@ -1980,12 +1680,6 @@
       </c>
       <c r="H50" t="n">
         <v>0.0407517842656772</v>
-      </c>
-      <c r="I50" t="n">
-        <v>-453390284772.703</v>
-      </c>
-      <c r="J50" t="n">
-        <v>-36086841939.8656</v>
       </c>
     </row>
     <row r="51">
@@ -1993,13 +1687,13 @@
         <v>1951</v>
       </c>
       <c r="B51" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C51" t="n">
         <v>31477765961.453</v>
       </c>
       <c r="D51" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E51" t="n">
         <v>0.512</v>
@@ -2012,12 +1706,6 @@
       </c>
       <c r="H51" t="n">
         <v>0.0407517842656772</v>
-      </c>
-      <c r="I51" t="n">
-        <v>-451265252823.39</v>
-      </c>
-      <c r="J51" t="n">
-        <v>-35917703573.5451</v>
       </c>
     </row>
     <row r="52">
@@ -2025,13 +1713,13 @@
         <v>1952</v>
       </c>
       <c r="B52" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C52" t="n">
         <v>31330230249.7104</v>
       </c>
       <c r="D52" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E52" t="n">
         <v>0.512</v>
@@ -2044,12 +1732,6 @@
       </c>
       <c r="H52" t="n">
         <v>0.0407517842656772</v>
-      </c>
-      <c r="I52" t="n">
-        <v>-449150180859.849</v>
-      </c>
-      <c r="J52" t="n">
-        <v>-35749357955.6454</v>
       </c>
     </row>
     <row r="53">
@@ -2057,13 +1739,13 @@
         <v>1953</v>
       </c>
       <c r="B53" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C53" t="n">
         <v>31183386035.1429</v>
       </c>
       <c r="D53" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E53" t="n">
         <v>0.512</v>
@@ -2076,12 +1758,6 @@
       </c>
       <c r="H53" t="n">
         <v>0.0407517842656772</v>
-      </c>
-      <c r="I53" t="n">
-        <v>-447045022199.809</v>
-      </c>
-      <c r="J53" t="n">
-        <v>-35581801370.5694</v>
       </c>
     </row>
     <row r="54">
@@ -2089,13 +1765,13 @@
         <v>1954</v>
       </c>
       <c r="B54" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C54" t="n">
         <v>31037230076.7159</v>
       </c>
       <c r="D54" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E54" t="n">
         <v>0.512</v>
@@ -2108,12 +1784,6 @@
       </c>
       <c r="H54" t="n">
         <v>0.0407517842656772</v>
-      </c>
-      <c r="I54" t="n">
-        <v>-444949730379.799</v>
-      </c>
-      <c r="J54" t="n">
-        <v>-35415030120.1344</v>
       </c>
     </row>
     <row r="55">
@@ -2121,13 +1791,13 @@
         <v>1955</v>
       </c>
       <c r="B55" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C55" t="n">
         <v>30891759148.5854</v>
       </c>
       <c r="D55" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E55" t="n">
         <v>0.512</v>
@@ -2140,12 +1810,6 @@
       </c>
       <c r="H55" t="n">
         <v>0.0407517842656772</v>
-      </c>
-      <c r="I55" t="n">
-        <v>-442864259154.121</v>
-      </c>
-      <c r="J55" t="n">
-        <v>-35249040523.4916</v>
       </c>
     </row>
     <row r="56">
@@ -2153,13 +1817,13 @@
         <v>1956</v>
       </c>
       <c r="B56" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C56" t="n">
         <v>30746970040.0271</v>
       </c>
       <c r="D56" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E56" t="n">
         <v>0.512</v>
@@ -2172,12 +1836,6 @@
       </c>
       <c r="H56" t="n">
         <v>0.0407517842656772</v>
-      </c>
-      <c r="I56" t="n">
-        <v>-440788562493.829</v>
-      </c>
-      <c r="J56" t="n">
-        <v>-35083828917.044</v>
       </c>
     </row>
     <row r="57">
@@ -2185,13 +1843,13 @@
         <v>1957</v>
       </c>
       <c r="B57" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C57" t="n">
         <v>30602859555.3651</v>
       </c>
       <c r="D57" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E57" t="n">
         <v>0.512</v>
@@ -2204,12 +1862,6 @@
       </c>
       <c r="H57" t="n">
         <v>0.0407517842656772</v>
-      </c>
-      <c r="I57" t="n">
-        <v>-438722594585.714</v>
-      </c>
-      <c r="J57" t="n">
-        <v>-34919391654.3656</v>
       </c>
     </row>
     <row r="58">
@@ -2217,13 +1869,13 @@
         <v>1958</v>
       </c>
       <c r="B58" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C58" t="n">
         <v>30459424513.9016</v>
       </c>
       <c r="D58" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E58" t="n">
         <v>0.512</v>
@@ -2236,12 +1888,6 @@
       </c>
       <c r="H58" t="n">
         <v>0.0407517842656772</v>
-      </c>
-      <c r="I58" t="n">
-        <v>-436666309831.294</v>
-      </c>
-      <c r="J58" t="n">
-        <v>-34755725106.1216</v>
       </c>
     </row>
     <row r="59">
@@ -2249,13 +1895,13 @@
         <v>1959</v>
       </c>
       <c r="B59" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C59" t="n">
         <v>30316661749.8469</v>
       </c>
       <c r="D59" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E59" t="n">
         <v>0.512</v>
@@ -2268,12 +1914,6 @@
       </c>
       <c r="H59" t="n">
         <v>0.0407517842656772</v>
-      </c>
-      <c r="I59" t="n">
-        <v>-434619662845.805</v>
-      </c>
-      <c r="J59" t="n">
-        <v>-34592825659.9875</v>
       </c>
     </row>
     <row r="60">
@@ -2281,13 +1921,13 @@
         <v>1960</v>
       </c>
       <c r="B60" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C60" t="n">
         <v>30174568112.2488</v>
       </c>
       <c r="D60" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E60" t="n">
         <v>0.512</v>
@@ -2300,12 +1940,6 @@
       </c>
       <c r="H60" t="n">
         <v>0.0407517842656772</v>
-      </c>
-      <c r="I60" t="n">
-        <v>-432582608457.199</v>
-      </c>
-      <c r="J60" t="n">
-        <v>-34430689720.5697</v>
       </c>
     </row>
     <row r="61">
@@ -2313,13 +1947,13 @@
         <v>1961</v>
       </c>
       <c r="B61" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C61" t="n">
         <v>30033140464.9242</v>
       </c>
       <c r="D61" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E61" t="n">
         <v>0.512</v>
@@ -2332,12 +1966,6 @@
       </c>
       <c r="H61" t="n">
         <v>0.0407517842656772</v>
-      </c>
-      <c r="I61" t="n">
-        <v>-430555101705.153</v>
-      </c>
-      <c r="J61" t="n">
-        <v>-34269313709.3264</v>
       </c>
     </row>
     <row r="62">
@@ -2345,13 +1973,13 @@
         <v>1962</v>
       </c>
       <c r="B62" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C62" t="n">
         <v>29892375686.3886</v>
       </c>
       <c r="D62" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E62" t="n">
         <v>0.512</v>
@@ -2364,12 +1992,6 @@
       </c>
       <c r="H62" t="n">
         <v>0.0407517842656772</v>
-      </c>
-      <c r="I62" t="n">
-        <v>-428537097840.068</v>
-      </c>
-      <c r="J62" t="n">
-        <v>-34108694064.488</v>
       </c>
     </row>
     <row r="63">
@@ -2377,13 +1999,13 @@
         <v>1963</v>
       </c>
       <c r="B63" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C63" t="n">
         <v>29752270669.7884</v>
       </c>
       <c r="D63" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E63" t="n">
         <v>0.512</v>
@@ -2396,12 +2018,6 @@
       </c>
       <c r="H63" t="n">
         <v>0.0407517842656772</v>
-      </c>
-      <c r="I63" t="n">
-        <v>-426528552322.087</v>
-      </c>
-      <c r="J63" t="n">
-        <v>-33948827240.9791</v>
       </c>
     </row>
     <row r="64">
@@ -2409,13 +2025,13 @@
         <v>1964</v>
       </c>
       <c r="B64" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C64" t="n">
         <v>29612822322.8314</v>
       </c>
       <c r="D64" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E64" t="n">
         <v>0.512</v>
@@ -2428,12 +2044,6 @@
       </c>
       <c r="H64" t="n">
         <v>0.0407517842656772</v>
-      </c>
-      <c r="I64" t="n">
-        <v>-424529420820.111</v>
-      </c>
-      <c r="J64" t="n">
-        <v>-33789709710.34</v>
       </c>
     </row>
     <row r="65">
@@ -2441,13 +2051,13 @@
         <v>1965</v>
       </c>
       <c r="B65" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C65" t="n">
         <v>29474027567.719</v>
       </c>
       <c r="D65" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E65" t="n">
         <v>0.512</v>
@@ -2460,12 +2070,6 @@
       </c>
       <c r="H65" t="n">
         <v>0.0407517842656772</v>
-      </c>
-      <c r="I65" t="n">
-        <v>-422539659210.82</v>
-      </c>
-      <c r="J65" t="n">
-        <v>-33631337960.6487</v>
       </c>
     </row>
     <row r="66">
@@ -2473,13 +2077,13 @@
         <v>1966</v>
       </c>
       <c r="B66" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C66" t="n">
         <v>29335883341.0783</v>
       </c>
       <c r="D66" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E66" t="n">
         <v>0.512</v>
@@ -2492,12 +2096,6 @@
       </c>
       <c r="H66" t="n">
         <v>0.0407517842656772</v>
-      </c>
-      <c r="I66" t="n">
-        <v>-420559223577.698</v>
-      </c>
-      <c r="J66" t="n">
-        <v>-33473708496.4435</v>
       </c>
     </row>
     <row r="67">
@@ -2505,13 +2103,13 @@
         <v>1967</v>
       </c>
       <c r="B67" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C67" t="n">
         <v>29198386593.8942</v>
       </c>
       <c r="D67" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E67" t="n">
         <v>0.512</v>
@@ -2524,12 +2122,6 @@
       </c>
       <c r="H67" t="n">
         <v>0.0407517842656772</v>
-      </c>
-      <c r="I67" t="n">
-        <v>-418588070210.067</v>
-      </c>
-      <c r="J67" t="n">
-        <v>-33316817838.6461</v>
       </c>
     </row>
     <row r="68">
@@ -2537,13 +2129,13 @@
         <v>1968</v>
       </c>
       <c r="B68" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C68" t="n">
         <v>29061534291.4423</v>
       </c>
       <c r="D68" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E68" t="n">
         <v>0.512</v>
@@ -2556,12 +2148,6 @@
       </c>
       <c r="H68" t="n">
         <v>0.0407517842656772</v>
-      </c>
-      <c r="I68" t="n">
-        <v>-416626155602.117</v>
-      </c>
-      <c r="J68" t="n">
-        <v>-33160662524.4843</v>
       </c>
     </row>
     <row r="69">
@@ -2569,13 +2155,13 @@
         <v>1969</v>
       </c>
       <c r="B69" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C69" t="n">
         <v>28925323413.2222</v>
       </c>
       <c r="D69" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E69" t="n">
         <v>0.512</v>
@@ -2588,12 +2174,6 @@
       </c>
       <c r="H69" t="n">
         <v>0.0407517842656772</v>
-      </c>
-      <c r="I69" t="n">
-        <v>-414673436451.953</v>
-      </c>
-      <c r="J69" t="n">
-        <v>-33005239107.416</v>
       </c>
     </row>
     <row r="70">
@@ -2601,13 +2181,13 @@
         <v>1970</v>
       </c>
       <c r="B70" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C70" t="n">
         <v>28789750952.89</v>
       </c>
       <c r="D70" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E70" t="n">
         <v>0.512</v>
@@ -2620,12 +2200,6 @@
       </c>
       <c r="H70" t="n">
         <v>0.0407517842656772</v>
-      </c>
-      <c r="I70" t="n">
-        <v>-412729869660.631</v>
-      </c>
-      <c r="J70" t="n">
-        <v>-32850544157.053</v>
       </c>
     </row>
     <row r="71">
@@ -2633,13 +2207,13 @@
         <v>1971</v>
       </c>
       <c r="B71" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C71" t="n">
         <v>28654813918.193</v>
       </c>
       <c r="D71" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E71" t="n">
         <v>0.512</v>
@@ -2652,12 +2226,6 @@
       </c>
       <c r="H71" t="n">
         <v>0.0407517842656772</v>
-      </c>
-      <c r="I71" t="n">
-        <v>-410795412331.215</v>
-      </c>
-      <c r="J71" t="n">
-        <v>-32696574259.0851</v>
       </c>
     </row>
     <row r="72">
@@ -2665,13 +2233,13 @@
         <v>1972</v>
       </c>
       <c r="B72" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C72" t="n">
         <v>28520509330.9028</v>
       </c>
       <c r="D72" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E72" t="n">
         <v>0.512</v>
@@ -2684,12 +2252,6 @@
       </c>
       <c r="H72" t="n">
         <v>0.0407517842656772</v>
-      </c>
-      <c r="I72" t="n">
-        <v>-408870021767.822</v>
-      </c>
-      <c r="J72" t="n">
-        <v>-32543326015.2052</v>
       </c>
     </row>
     <row r="73">
@@ -2697,13 +2259,13 @@
         <v>1973</v>
       </c>
       <c r="B73" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C73" t="n">
         <v>28386834226.75</v>
       </c>
       <c r="D73" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E73" t="n">
         <v>0.512</v>
@@ -2716,12 +2278,6 @@
       </c>
       <c r="H73" t="n">
         <v>0.0407517842656772</v>
-      </c>
-      <c r="I73" t="n">
-        <v>-406953655474.688</v>
-      </c>
-      <c r="J73" t="n">
-        <v>-32390796043.0336</v>
       </c>
     </row>
     <row r="74">
@@ -2729,13 +2285,13 @@
         <v>1974</v>
       </c>
       <c r="B74" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C74" t="n">
         <v>28253785655.3586</v>
       </c>
       <c r="D74" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E74" t="n">
         <v>0.512</v>
@@ -2748,12 +2304,6 @@
       </c>
       <c r="H74" t="n">
         <v>0.0407517842656772</v>
-      </c>
-      <c r="I74" t="n">
-        <v>-405046271155.222</v>
-      </c>
-      <c r="J74" t="n">
-        <v>-32238980976.0441</v>
       </c>
     </row>
     <row r="75">
@@ -2761,13 +2311,13 @@
         <v>1975</v>
       </c>
       <c r="B75" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C75" t="n">
         <v>28121360680.1813</v>
       </c>
       <c r="D75" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E75" t="n">
         <v>0.512</v>
@@ -2780,12 +2330,6 @@
       </c>
       <c r="H75" t="n">
         <v>0.0407517842656772</v>
-      </c>
-      <c r="I75" t="n">
-        <v>-403147826711.079</v>
-      </c>
-      <c r="J75" t="n">
-        <v>-32087877463.4893</v>
       </c>
     </row>
     <row r="76">
@@ -2793,13 +2337,13 @@
         <v>1976</v>
       </c>
       <c r="B76" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C76" t="n">
         <v>27989556378.4338</v>
       </c>
       <c r="D76" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E76" t="n">
         <v>0.512</v>
@@ -2812,12 +2356,6 @@
       </c>
       <c r="H76" t="n">
         <v>0.0407517842656772</v>
-      </c>
-      <c r="I76" t="n">
-        <v>-401258280241.227</v>
-      </c>
-      <c r="J76" t="n">
-        <v>-31937482170.3264</v>
       </c>
     </row>
     <row r="77">
@@ -2825,13 +2363,13 @@
         <v>1977</v>
       </c>
       <c r="B77" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C77" t="n">
         <v>27858369841.0312</v>
       </c>
       <c r="D77" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E77" t="n">
         <v>0.512</v>
@@ -2844,12 +2382,6 @@
       </c>
       <c r="H77" t="n">
         <v>0.0407517842656772</v>
-      </c>
-      <c r="I77" t="n">
-        <v>-399377590041.024</v>
-      </c>
-      <c r="J77" t="n">
-        <v>-31787791777.1443</v>
       </c>
     </row>
     <row r="78">
@@ -2857,13 +2389,13 @@
         <v>1978</v>
       </c>
       <c r="B78" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C78" t="n">
         <v>27727798172.5235</v>
       </c>
       <c r="D78" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E78" t="n">
         <v>0.512</v>
@@ -2876,12 +2408,6 @@
       </c>
       <c r="H78" t="n">
         <v>0.0407517842656772</v>
-      </c>
-      <c r="I78" t="n">
-        <v>-397505714601.297</v>
-      </c>
-      <c r="J78" t="n">
-        <v>-31638802980.0897</v>
       </c>
     </row>
     <row r="79">
@@ -2889,13 +2415,13 @@
         <v>1979</v>
       </c>
       <c r="B79" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C79" t="n">
         <v>27597838491.0313</v>
       </c>
       <c r="D79" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E79" t="n">
         <v>0.512</v>
@@ -2908,12 +2434,6 @@
       </c>
       <c r="H79" t="n">
         <v>0.0407517842656772</v>
-      </c>
-      <c r="I79" t="n">
-        <v>-395642612607.424</v>
-      </c>
-      <c r="J79" t="n">
-        <v>-31490512490.7943</v>
       </c>
     </row>
     <row r="80">
@@ -2921,13 +2441,13 @@
         <v>1980</v>
       </c>
       <c r="B80" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C80" t="n">
         <v>27468487928.1827</v>
       </c>
       <c r="D80" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E80" t="n">
         <v>0.512</v>
@@ -2940,12 +2460,6 @@
       </c>
       <c r="H80" t="n">
         <v>0.0407517842656772</v>
-      </c>
-      <c r="I80" t="n">
-        <v>-393788242938.427</v>
-      </c>
-      <c r="J80" t="n">
-        <v>-31342917036.3025</v>
       </c>
     </row>
     <row r="81">
@@ -2953,13 +2467,13 @@
         <v>1981</v>
       </c>
       <c r="B81" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C81" t="n">
         <v>27339743629.0498</v>
       </c>
       <c r="D81" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E81" t="n">
         <v>0.512</v>
@@ -2972,12 +2486,6 @@
       </c>
       <c r="H81" t="n">
         <v>0.0407517842656772</v>
-      </c>
-      <c r="I81" t="n">
-        <v>-391942564666.057</v>
-      </c>
-      <c r="J81" t="n">
-        <v>-31196013358.9989</v>
       </c>
     </row>
     <row r="82">
@@ -2985,13 +2493,13 @@
         <v>1982</v>
       </c>
       <c r="B82" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C82" t="n">
         <v>27211602752.0857</v>
       </c>
       <c r="D82" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E82" t="n">
         <v>0.512</v>
@@ -3004,12 +2512,6 @@
       </c>
       <c r="H82" t="n">
         <v>0.0407517842656772</v>
-      </c>
-      <c r="I82" t="n">
-        <v>-390105537053.9</v>
-      </c>
-      <c r="J82" t="n">
-        <v>-31049798216.5365</v>
       </c>
     </row>
     <row r="83">
@@ -3017,13 +2519,13 @@
         <v>1983</v>
       </c>
       <c r="B83" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C83" t="n">
         <v>27084062469.0618</v>
       </c>
       <c r="D83" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E83" t="n">
         <v>0.512</v>
@@ -3036,12 +2538,6 @@
       </c>
       <c r="H83" t="n">
         <v>0.0407517842656772</v>
-      </c>
-      <c r="I83" t="n">
-        <v>-388277119556.469</v>
-      </c>
-      <c r="J83" t="n">
-        <v>-30904268381.7652</v>
       </c>
     </row>
     <row r="84">
@@ -3049,13 +2545,13 @@
         <v>1984</v>
       </c>
       <c r="B84" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C84" t="n">
         <v>26957119965.0052</v>
       </c>
       <c r="D84" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E84" t="n">
         <v>0.512</v>
@@ -3068,12 +2564,6 @@
       </c>
       <c r="H84" t="n">
         <v>0.0407517842656772</v>
-      </c>
-      <c r="I84" t="n">
-        <v>-386457271818.315</v>
-      </c>
-      <c r="J84" t="n">
-        <v>-30759420642.6604</v>
       </c>
     </row>
     <row r="85">
@@ -3081,13 +2571,13 @@
         <v>1985</v>
       </c>
       <c r="B85" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C85" t="n">
         <v>26830772438.137</v>
       </c>
       <c r="D85" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E85" t="n">
         <v>0.512</v>
@@ -3100,12 +2590,6 @@
       </c>
       <c r="H85" t="n">
         <v>0.0407517842656772</v>
-      </c>
-      <c r="I85" t="n">
-        <v>-384645953673.132</v>
-      </c>
-      <c r="J85" t="n">
-        <v>-30615251802.2522</v>
       </c>
     </row>
     <row r="86">
@@ -3113,13 +2597,13 @@
         <v>1986</v>
       </c>
       <c r="B86" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C86" t="n">
         <v>26705017099.8099</v>
       </c>
       <c r="D86" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E86" t="n">
         <v>0.512</v>
@@ -3132,12 +2616,6 @@
       </c>
       <c r="H86" t="n">
         <v>0.0407517842656772</v>
-      </c>
-      <c r="I86" t="n">
-        <v>-382843125142.875</v>
-      </c>
-      <c r="J86" t="n">
-        <v>-30471758678.5549</v>
       </c>
     </row>
     <row r="87">
@@ -3145,13 +2623,13 @@
         <v>1987</v>
       </c>
       <c r="B87" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C87" t="n">
         <v>26579851174.4471</v>
       </c>
       <c r="D87" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E87" t="n">
         <v>0.512</v>
@@ -3164,12 +2642,6 @@
       </c>
       <c r="H87" t="n">
         <v>0.0407517842656772</v>
-      </c>
-      <c r="I87" t="n">
-        <v>-381048746436.874</v>
-      </c>
-      <c r="J87" t="n">
-        <v>-30328938104.4966</v>
       </c>
     </row>
     <row r="88">
@@ -3177,13 +2649,13 @@
         <v>1988</v>
       </c>
       <c r="B88" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C88" t="n">
         <v>26455271899.4809</v>
       </c>
       <c r="D88" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E88" t="n">
         <v>0.512</v>
@@ -3196,12 +2668,6 @@
       </c>
       <c r="H88" t="n">
         <v>0.0407517842656772</v>
-      </c>
-      <c r="I88" t="n">
-        <v>-379262777950.959</v>
-      </c>
-      <c r="J88" t="n">
-        <v>-30186786927.8495</v>
       </c>
     </row>
     <row r="89">
@@ -3209,13 +2675,13 @@
         <v>1989</v>
       </c>
       <c r="B89" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C89" t="n">
         <v>26331276525.2917</v>
       </c>
       <c r="D89" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E89" t="n">
         <v>0.512</v>
@@ -3228,12 +2694,6 @@
       </c>
       <c r="H89" t="n">
         <v>0.0407517842656772</v>
-      </c>
-      <c r="I89" t="n">
-        <v>-377485180266.581</v>
-      </c>
-      <c r="J89" t="n">
-        <v>-30045302011.1602</v>
       </c>
     </row>
     <row r="90">
@@ -3241,13 +2701,13 @@
         <v>1990</v>
       </c>
       <c r="B90" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C90" t="n">
         <v>26207862315.1471</v>
       </c>
       <c r="D90" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E90" t="n">
         <v>0.512</v>
@@ -3260,12 +2720,6 @@
       </c>
       <c r="H90" t="n">
         <v>0.0407517842656772</v>
-      </c>
-      <c r="I90" t="n">
-        <v>-375715914149.949</v>
-      </c>
-      <c r="J90" t="n">
-        <v>-29904480231.6805</v>
       </c>
     </row>
     <row r="91">
@@ -3273,13 +2727,13 @@
         <v>1991</v>
       </c>
       <c r="B91" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C91" t="n">
         <v>26085026545.142</v>
       </c>
       <c r="D91" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E91" t="n">
         <v>0.512</v>
@@ -3292,12 +2746,6 @@
       </c>
       <c r="H91" t="n">
         <v>0.0407517842656772</v>
-      </c>
-      <c r="I91" t="n">
-        <v>-373954940551.155</v>
-      </c>
-      <c r="J91" t="n">
-        <v>-29764318481.2985</v>
       </c>
     </row>
     <row r="92">
@@ -3305,13 +2753,13 @@
         <v>1992</v>
       </c>
       <c r="B92" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C92" t="n">
         <v>25962766504.138</v>
       </c>
       <c r="D92" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E92" t="n">
         <v>0.512</v>
@@ -3324,12 +2772,6 @@
       </c>
       <c r="H92" t="n">
         <v>0.0407517842656772</v>
-      </c>
-      <c r="I92" t="n">
-        <v>-372202220603.322</v>
-      </c>
-      <c r="J92" t="n">
-        <v>-29624813666.4699</v>
       </c>
     </row>
     <row r="93">
@@ -3337,13 +2779,13 @@
         <v>1993</v>
       </c>
       <c r="B93" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C93" t="n">
         <v>25841079493.7039</v>
       </c>
       <c r="D93" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E93" t="n">
         <v>0.512</v>
@@ -3356,12 +2798,6 @@
       </c>
       <c r="H93" t="n">
         <v>0.0407517842656772</v>
-      </c>
-      <c r="I93" t="n">
-        <v>-370457715621.739</v>
-      </c>
-      <c r="J93" t="n">
-        <v>-29485962708.1498</v>
       </c>
     </row>
     <row r="94">
@@ -3369,13 +2805,13 @@
         <v>1994</v>
       </c>
       <c r="B94" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C94" t="n">
         <v>25719962828.0559</v>
       </c>
       <c r="D94" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E94" t="n">
         <v>0.512</v>
@@ -3388,12 +2824,6 @@
       </c>
       <c r="H94" t="n">
         <v>0.0407517842656772</v>
-      </c>
-      <c r="I94" t="n">
-        <v>-368721387103.009</v>
-      </c>
-      <c r="J94" t="n">
-        <v>-29347762541.7248</v>
       </c>
     </row>
     <row r="95">
@@ -3401,13 +2831,13 @@
         <v>1995</v>
       </c>
       <c r="B95" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C95" t="n">
         <v>25599413833.9984</v>
       </c>
       <c r="D95" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E95" t="n">
         <v>0.512</v>
@@ -3420,12 +2850,6 @@
       </c>
       <c r="H95" t="n">
         <v>0.0407517842656772</v>
-      </c>
-      <c r="I95" t="n">
-        <v>-366993196724.201</v>
-      </c>
-      <c r="J95" t="n">
-        <v>-29210210116.9451</v>
       </c>
     </row>
     <row r="96">
@@ -3433,13 +2857,13 @@
         <v>1996</v>
       </c>
       <c r="B96" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C96" t="n">
         <v>25479429850.8652</v>
       </c>
       <c r="D96" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E96" t="n">
         <v>0.512</v>
@@ -3452,12 +2876,6 @@
       </c>
       <c r="H96" t="n">
         <v>0.0407517842656772</v>
-      </c>
-      <c r="I96" t="n">
-        <v>-365273106342.003</v>
-      </c>
-      <c r="J96" t="n">
-        <v>-29073302397.8576</v>
       </c>
     </row>
     <row r="97">
@@ -3465,13 +2883,13 @@
         <v>1997</v>
       </c>
       <c r="B97" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C97" t="n">
         <v>25360008230.4603</v>
       </c>
       <c r="D97" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E97" t="n">
         <v>0.512</v>
@@ -3484,12 +2902,6 @@
       </c>
       <c r="H97" t="n">
         <v>0.0407517842656772</v>
-      </c>
-      <c r="I97" t="n">
-        <v>-363561077991.879</v>
-      </c>
-      <c r="J97" t="n">
-        <v>-28937036362.7385</v>
       </c>
     </row>
     <row r="98">
@@ -3497,13 +2909,13 @@
         <v>1998</v>
       </c>
       <c r="B98" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C98" t="n">
         <v>25241146337</v>
       </c>
       <c r="D98" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E98" t="n">
         <v>0.512</v>
@@ -3516,12 +2928,6 @@
       </c>
       <c r="H98" t="n">
         <v>0.0407517842656772</v>
-      </c>
-      <c r="I98" t="n">
-        <v>-361857073887.232</v>
-      </c>
-      <c r="J98" t="n">
-        <v>-28801409004.0268</v>
       </c>
     </row>
     <row r="99">
@@ -3529,13 +2935,13 @@
         <v>1999</v>
       </c>
       <c r="B99" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C99" t="n">
         <v>25122841547.0544</v>
       </c>
       <c r="D99" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E99" t="n">
         <v>0.512</v>
@@ -3548,12 +2954,6 @@
       </c>
       <c r="H99" t="n">
         <v>0.0407517842656772</v>
-      </c>
-      <c r="I99" t="n">
-        <v>-360161056418.571</v>
-      </c>
-      <c r="J99" t="n">
-        <v>-28666417328.2579</v>
       </c>
     </row>
     <row r="100">
@@ -3561,13 +2961,13 @@
         <v>2000</v>
       </c>
       <c r="B100" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C100" t="n">
         <v>25005091249.4894</v>
       </c>
       <c r="D100" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E100" t="n">
         <v>0.512</v>
@@ -3580,12 +2980,6 @@
       </c>
       <c r="H100" t="n">
         <v>0.0407517842656772</v>
-      </c>
-      <c r="I100" t="n">
-        <v>-358472988152.681</v>
-      </c>
-      <c r="J100" t="n">
-        <v>-28532058355.9975</v>
       </c>
     </row>
     <row r="101">
@@ -3593,13 +2987,13 @@
         <v>2001</v>
       </c>
       <c r="B101" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C101" t="n">
         <v>24887892845.4096</v>
       </c>
       <c r="D101" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E101" t="n">
         <v>0.512</v>
@@ -3612,12 +3006,6 @@
       </c>
       <c r="H101" t="n">
         <v>0.0407517842656772</v>
-      </c>
-      <c r="I101" t="n">
-        <v>-356792831831.792</v>
-      </c>
-      <c r="J101" t="n">
-        <v>-28398329121.7759</v>
       </c>
     </row>
     <row r="102">
@@ -3625,13 +3013,13 @@
         <v>2002</v>
       </c>
       <c r="B102" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C102" t="n">
         <v>24771243748.1002</v>
       </c>
       <c r="D102" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E102" t="n">
         <v>0.512</v>
@@ -3644,12 +3032,6 @@
       </c>
       <c r="H102" t="n">
         <v>0.0407517842656772</v>
-      </c>
-      <c r="I102" t="n">
-        <v>-355120550372.765</v>
-      </c>
-      <c r="J102" t="n">
-        <v>-28265226674.0224</v>
       </c>
     </row>
     <row r="103">
@@ -3657,13 +3039,13 @@
         <v>2003</v>
       </c>
       <c r="B103" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C103" t="n">
         <v>24655141382.9705</v>
       </c>
       <c r="D103" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E103" t="n">
         <v>0.512</v>
@@ -3676,12 +3058,6 @@
       </c>
       <c r="H103" t="n">
         <v>0.0407517842656772</v>
-      </c>
-      <c r="I103" t="n">
-        <v>-353456106866.265</v>
-      </c>
-      <c r="J103" t="n">
-        <v>-28132748075.0004</v>
       </c>
     </row>
     <row r="104">
@@ -3689,13 +3065,13 @@
         <v>2004</v>
       </c>
       <c r="B104" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C104" t="n">
         <v>24539583187.4968</v>
       </c>
       <c r="D104" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E104" t="n">
         <v>0.512</v>
@@ -3708,12 +3084,6 @@
       </c>
       <c r="H104" t="n">
         <v>0.0407517842656772</v>
-      </c>
-      <c r="I104" t="n">
-        <v>-351799464575.954</v>
-      </c>
-      <c r="J104" t="n">
-        <v>-28000890400.7422</v>
       </c>
     </row>
     <row r="105">
@@ -3721,13 +3091,13 @@
         <v>2005</v>
       </c>
       <c r="B105" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C105" t="n">
         <v>24424566611.1658</v>
       </c>
       <c r="D105" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E105" t="n">
         <v>0.512</v>
@@ -3740,12 +3110,6 @@
       </c>
       <c r="H105" t="n">
         <v>0.0407517842656772</v>
-      </c>
-      <c r="I105" t="n">
-        <v>-350150586937.673</v>
-      </c>
-      <c r="J105" t="n">
-        <v>-27869650740.985</v>
       </c>
     </row>
     <row r="106">
@@ -3753,13 +3117,13 @@
         <v>2006</v>
       </c>
       <c r="B106" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C106" t="n">
         <v>24310089115.4187</v>
       </c>
       <c r="D106" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E106" t="n">
         <v>0.512</v>
@@ -3772,12 +3136,6 @@
       </c>
       <c r="H106" t="n">
         <v>0.0407517842656772</v>
-      </c>
-      <c r="I106" t="n">
-        <v>-348509437558.642</v>
-      </c>
-      <c r="J106" t="n">
-        <v>-27739026199.106</v>
       </c>
     </row>
     <row r="107">
@@ -3785,13 +3143,13 @@
         <v>2007</v>
       </c>
       <c r="B107" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C107" t="n">
         <v>24196148173.5945</v>
       </c>
       <c r="D107" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E107" t="n">
         <v>0.512</v>
@@ -3804,12 +3162,6 @@
       </c>
       <c r="H107" t="n">
         <v>0.0407517842656772</v>
-      </c>
-      <c r="I107" t="n">
-        <v>-346875980216.651</v>
-      </c>
-      <c r="J107" t="n">
-        <v>-27609013892.0592</v>
       </c>
     </row>
     <row r="108">
@@ -3817,13 +3169,13 @@
         <v>2008</v>
       </c>
       <c r="B108" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C108" t="n">
         <v>24082741270.875</v>
       </c>
       <c r="D108" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E108" t="n">
         <v>0.512</v>
@@ -3836,12 +3188,6 @@
       </c>
       <c r="H108" t="n">
         <v>0.0407517842656772</v>
-      </c>
-      <c r="I108" t="n">
-        <v>-345250178859.263</v>
-      </c>
-      <c r="J108" t="n">
-        <v>-27479610950.3109</v>
       </c>
     </row>
     <row r="109">
@@ -3849,13 +3195,13 @@
         <v>2009</v>
       </c>
       <c r="B109" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C109" t="n">
         <v>23969865904.2285</v>
       </c>
       <c r="D109" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E109" t="n">
         <v>0.512</v>
@@ -3868,12 +3214,6 @@
       </c>
       <c r="H109" t="n">
         <v>0.0407517842656772</v>
-      </c>
-      <c r="I109" t="n">
-        <v>-343631997603.02</v>
-      </c>
-      <c r="J109" t="n">
-        <v>-27350814517.7773</v>
       </c>
     </row>
     <row r="110">
@@ -3881,13 +3221,13 @@
         <v>2010</v>
       </c>
       <c r="B110" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C110" t="n">
         <v>23857519582.3553</v>
       </c>
       <c r="D110" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E110" t="n">
         <v>0.512</v>
@@ -3900,12 +3240,6 @@
       </c>
       <c r="H110" t="n">
         <v>0.0407517842656772</v>
-      </c>
-      <c r="I110" t="n">
-        <v>-342021400732.646</v>
-      </c>
-      <c r="J110" t="n">
-        <v>-27222621751.7608</v>
       </c>
     </row>
     <row r="111">
@@ -3913,13 +3247,13 @@
         <v>2011</v>
       </c>
       <c r="B111" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C111" t="n">
         <v>23745699825.6323</v>
       </c>
       <c r="D111" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E111" t="n">
         <v>0.512</v>
@@ -3932,12 +3266,6 @@
       </c>
       <c r="H111" t="n">
         <v>0.0407517842656772</v>
-      </c>
-      <c r="I111" t="n">
-        <v>-340418352700.264</v>
-      </c>
-      <c r="J111" t="n">
-        <v>-27095029822.8875</v>
       </c>
     </row>
     <row r="112">
@@ -3945,13 +3273,13 @@
         <v>2012</v>
       </c>
       <c r="B112" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C112" t="n">
         <v>23634404166.0582</v>
       </c>
       <c r="D112" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E112" t="n">
         <v>0.512</v>
@@ -3964,12 +3292,6 @@
       </c>
       <c r="H112" t="n">
         <v>0.0407517842656772</v>
-      </c>
-      <c r="I112" t="n">
-        <v>-338822818124.61</v>
-      </c>
-      <c r="J112" t="n">
-        <v>-26968035915.0447</v>
       </c>
     </row>
     <row r="113">
@@ -3977,13 +3299,13 @@
         <v>2013</v>
       </c>
       <c r="B113" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C113" t="n">
         <v>23523630147.1992</v>
       </c>
       <c r="D113" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E113" t="n">
         <v>0.512</v>
@@ -3996,12 +3318,6 @@
       </c>
       <c r="H113" t="n">
         <v>0.0407517842656772</v>
-      </c>
-      <c r="I113" t="n">
-        <v>-337234761790.248</v>
-      </c>
-      <c r="J113" t="n">
-        <v>-26841637225.3188</v>
       </c>
     </row>
     <row r="114">
@@ -4009,13 +3325,13 @@
         <v>2014</v>
       </c>
       <c r="B114" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C114" t="n">
         <v>23413375324.135</v>
       </c>
       <c r="D114" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E114" t="n">
         <v>0.512</v>
@@ -4028,12 +3344,6 @@
       </c>
       <c r="H114" t="n">
         <v>0.0407517842656772</v>
-      </c>
-      <c r="I114" t="n">
-        <v>-335654148646.8</v>
-      </c>
-      <c r="J114" t="n">
-        <v>-26715830963.9335</v>
       </c>
     </row>
     <row r="115">
@@ -4041,13 +3351,13 @@
         <v>2015</v>
       </c>
       <c r="B115" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C115" t="n">
         <v>23303637263.4044</v>
       </c>
       <c r="D115" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E115" t="n">
         <v>0.512</v>
@@ -4060,12 +3370,6 @@
       </c>
       <c r="H115" t="n">
         <v>0.0407517842656772</v>
-      </c>
-      <c r="I115" t="n">
-        <v>-334080943808.166</v>
-      </c>
-      <c r="J115" t="n">
-        <v>-26590614354.1879</v>
       </c>
     </row>
     <row r="116">
@@ -4073,13 +3377,13 @@
         <v>2016</v>
       </c>
       <c r="B116" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C116" t="n">
         <v>23194413542.9518</v>
       </c>
       <c r="D116" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E116" t="n">
         <v>0.512</v>
@@ -4092,12 +3396,6 @@
       </c>
       <c r="H116" t="n">
         <v>0.0407517842656772</v>
-      </c>
-      <c r="I116" t="n">
-        <v>-332515112551.757</v>
-      </c>
-      <c r="J116" t="n">
-        <v>-26465984632.3957</v>
       </c>
     </row>
     <row r="117">
@@ -4105,13 +3403,13 @@
         <v>2017</v>
       </c>
       <c r="B117" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C117" t="n">
         <v>23085701752.0737</v>
       </c>
       <c r="D117" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E117" t="n">
         <v>0.512</v>
@@ -4124,12 +3422,6 @@
       </c>
       <c r="H117" t="n">
         <v>0.0407517842656772</v>
-      </c>
-      <c r="I117" t="n">
-        <v>-330956620317.729</v>
-      </c>
-      <c r="J117" t="n">
-        <v>-26341939047.8237</v>
       </c>
     </row>
     <row r="118">
@@ -4137,13 +3429,13 @@
         <v>2018</v>
       </c>
       <c r="B118" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C118" t="n">
         <v>22977499491.3657</v>
       </c>
       <c r="D118" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E118" t="n">
         <v>0.512</v>
@@ -4156,12 +3448,6 @@
       </c>
       <c r="H118" t="n">
         <v>0.0407517842656772</v>
-      </c>
-      <c r="I118" t="n">
-        <v>-329405432708.218</v>
-      </c>
-      <c r="J118" t="n">
-        <v>-26218474862.6316</v>
       </c>
     </row>
     <row r="119">
@@ -4169,13 +3455,13 @@
         <v>2019</v>
       </c>
       <c r="B119" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C119" t="n">
         <v>22869804372.6691</v>
       </c>
       <c r="D119" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E119" t="n">
         <v>0.512</v>
@@ -4188,12 +3474,6 @@
       </c>
       <c r="H119" t="n">
         <v>0.0407517842656772</v>
-      </c>
-      <c r="I119" t="n">
-        <v>-327861515486.584</v>
-      </c>
-      <c r="J119" t="n">
-        <v>-26095589351.811</v>
       </c>
     </row>
     <row r="120">
@@ -4201,13 +3481,13 @@
         <v>2020</v>
       </c>
       <c r="B120" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C120" t="n">
         <v>22762614019.0186</v>
       </c>
       <c r="D120" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E120" t="n">
         <v>0.512</v>
@@ -4220,12 +3500,6 @@
       </c>
       <c r="H120" t="n">
         <v>0.0407517842656772</v>
-      </c>
-      <c r="I120" t="n">
-        <v>-326324834576.651</v>
-      </c>
-      <c r="J120" t="n">
-        <v>-25973279803.1259</v>
       </c>
     </row>
     <row r="121">
@@ -4233,13 +3507,13 @@
         <v>2021</v>
       </c>
       <c r="B121" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C121" t="n">
         <v>22655926064.5898</v>
       </c>
       <c r="D121" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E121" t="n">
         <v>0.512</v>
@@ -4252,12 +3526,6 @@
       </c>
       <c r="H121" t="n">
         <v>0.0407517842656772</v>
-      </c>
-      <c r="I121" t="n">
-        <v>-324795356061.959</v>
-      </c>
-      <c r="J121" t="n">
-        <v>-25851543517.0523</v>
       </c>
     </row>
     <row r="122">
@@ -4265,13 +3533,13 @@
         <v>2022</v>
       </c>
       <c r="B122" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C122" t="n">
         <v>22549738154.6466</v>
       </c>
       <c r="D122" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E122" t="n">
         <v>0.512</v>
@@ -4284,12 +3552,6 @@
       </c>
       <c r="H122" t="n">
         <v>0.0407517842656772</v>
-      </c>
-      <c r="I122" t="n">
-        <v>-323273046185.014</v>
-      </c>
-      <c r="J122" t="n">
-        <v>-25730377806.7188</v>
       </c>
     </row>
     <row r="123">
@@ -4297,13 +3559,13 @@
         <v>2023</v>
       </c>
       <c r="B123" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C123" t="n">
         <v>22444047945.4898</v>
       </c>
       <c r="D123" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E123" t="n">
         <v>0.512</v>
@@ -4316,12 +3578,6 @@
       </c>
       <c r="H123" t="n">
         <v>0.0407517842656772</v>
-      </c>
-      <c r="I123" t="n">
-        <v>-321757871346.542</v>
-      </c>
-      <c r="J123" t="n">
-        <v>-25609779997.8473</v>
       </c>
     </row>
     <row r="124">
@@ -4329,13 +3585,13 @@
         <v>2024</v>
       </c>
       <c r="B124" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C124" t="n">
         <v>22338853104.405</v>
       </c>
       <c r="D124" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E124" t="n">
         <v>0.512</v>
@@ -4348,12 +3604,6 @@
       </c>
       <c r="H124" t="n">
         <v>0.0407517842656772</v>
-      </c>
-      <c r="I124" t="n">
-        <v>-320249798104.75</v>
-      </c>
-      <c r="J124" t="n">
-        <v>-25489747428.6942</v>
       </c>
     </row>
     <row r="125">
@@ -4361,13 +3611,13 @@
         <v>2025</v>
       </c>
       <c r="B125" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C125" t="n">
         <v>22234151309.6109</v>
       </c>
       <c r="D125" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E125" t="n">
         <v>0.512</v>
@@ -4380,12 +3630,6 @@
       </c>
       <c r="H125" t="n">
         <v>0.0407517842656772</v>
-      </c>
-      <c r="I125" t="n">
-        <v>-318748793174.582</v>
-      </c>
-      <c r="J125" t="n">
-        <v>-25370277449.9913</v>
       </c>
     </row>
     <row r="126">
@@ -4393,13 +3637,13 @@
         <v>1950</v>
       </c>
       <c r="B126" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C126" t="n">
-        <v>20000000000000</v>
+        <v>619825000000000</v>
       </c>
       <c r="D126" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E126" t="n">
         <v>0.087</v>
@@ -4412,12 +3656,6 @@
       </c>
       <c r="H126" t="n">
         <v>0.000206410276152917</v>
-      </c>
-      <c r="I126" t="n">
-        <v>-53940000000000</v>
-      </c>
-      <c r="J126" t="n">
-        <v>-127974371214.809</v>
       </c>
     </row>
     <row r="127">
@@ -4425,13 +3663,13 @@
         <v>1951</v>
       </c>
       <c r="B127" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C127" t="n">
-        <v>19990000000000</v>
+        <v>619825000000000</v>
       </c>
       <c r="D127" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E127" t="n">
         <v>0.087</v>
@@ -4444,12 +3682,6 @@
       </c>
       <c r="H127" t="n">
         <v>0.000206410276152917</v>
-      </c>
-      <c r="I127" t="n">
-        <v>-53913030000000</v>
-      </c>
-      <c r="J127" t="n">
-        <v>-127910384029.201</v>
       </c>
     </row>
     <row r="128">
@@ -4457,13 +3689,13 @@
         <v>1952</v>
       </c>
       <c r="B128" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C128" t="n">
-        <v>19980000000000</v>
+        <v>619825000000000</v>
       </c>
       <c r="D128" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E128" t="n">
         <v>0.087</v>
@@ -4476,12 +3708,6 @@
       </c>
       <c r="H128" t="n">
         <v>0.000206410276152917</v>
-      </c>
-      <c r="I128" t="n">
-        <v>-53886060000000</v>
-      </c>
-      <c r="J128" t="n">
-        <v>-127846396843.594</v>
       </c>
     </row>
     <row r="129">
@@ -4489,13 +3715,13 @@
         <v>1953</v>
       </c>
       <c r="B129" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C129" t="n">
-        <v>19970000000000</v>
+        <v>619825000000000</v>
       </c>
       <c r="D129" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E129" t="n">
         <v>0.087</v>
@@ -4508,12 +3734,6 @@
       </c>
       <c r="H129" t="n">
         <v>0.000206410276152917</v>
-      </c>
-      <c r="I129" t="n">
-        <v>-53859090000000</v>
-      </c>
-      <c r="J129" t="n">
-        <v>-127782409657.987</v>
       </c>
     </row>
     <row r="130">
@@ -4521,13 +3741,13 @@
         <v>1954</v>
       </c>
       <c r="B130" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C130" t="n">
-        <v>19960000000000</v>
+        <v>619825000000000</v>
       </c>
       <c r="D130" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E130" t="n">
         <v>0.087</v>
@@ -4540,12 +3760,6 @@
       </c>
       <c r="H130" t="n">
         <v>0.000206410276152917</v>
-      </c>
-      <c r="I130" t="n">
-        <v>-53832120000000</v>
-      </c>
-      <c r="J130" t="n">
-        <v>-127718422472.379</v>
       </c>
     </row>
     <row r="131">
@@ -4553,13 +3767,13 @@
         <v>1955</v>
       </c>
       <c r="B131" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C131" t="n">
-        <v>19950000000000</v>
+        <v>619825000000000</v>
       </c>
       <c r="D131" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E131" t="n">
         <v>0.087</v>
@@ -4572,12 +3786,6 @@
       </c>
       <c r="H131" t="n">
         <v>0.000206410276152917</v>
-      </c>
-      <c r="I131" t="n">
-        <v>-53805150000000</v>
-      </c>
-      <c r="J131" t="n">
-        <v>-127654435286.772</v>
       </c>
     </row>
     <row r="132">
@@ -4585,13 +3793,13 @@
         <v>1956</v>
       </c>
       <c r="B132" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C132" t="n">
-        <v>19940000000000</v>
+        <v>619825000000000</v>
       </c>
       <c r="D132" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E132" t="n">
         <v>0.087</v>
@@ -4604,12 +3812,6 @@
       </c>
       <c r="H132" t="n">
         <v>0.000206410276152917</v>
-      </c>
-      <c r="I132" t="n">
-        <v>-53778180000000</v>
-      </c>
-      <c r="J132" t="n">
-        <v>-127590448101.164</v>
       </c>
     </row>
     <row r="133">
@@ -4617,13 +3819,13 @@
         <v>1957</v>
       </c>
       <c r="B133" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C133" t="n">
-        <v>19930000000000</v>
+        <v>619825000000000</v>
       </c>
       <c r="D133" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E133" t="n">
         <v>0.087</v>
@@ -4636,12 +3838,6 @@
       </c>
       <c r="H133" t="n">
         <v>0.000206410276152917</v>
-      </c>
-      <c r="I133" t="n">
-        <v>-53751210000000</v>
-      </c>
-      <c r="J133" t="n">
-        <v>-127526460915.557</v>
       </c>
     </row>
     <row r="134">
@@ -4649,13 +3845,13 @@
         <v>1958</v>
       </c>
       <c r="B134" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C134" t="n">
-        <v>19920000000000</v>
+        <v>619825000000000</v>
       </c>
       <c r="D134" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E134" t="n">
         <v>0.087</v>
@@ -4668,12 +3864,6 @@
       </c>
       <c r="H134" t="n">
         <v>0.000206410276152917</v>
-      </c>
-      <c r="I134" t="n">
-        <v>-53724240000000</v>
-      </c>
-      <c r="J134" t="n">
-        <v>-127462473729.95</v>
       </c>
     </row>
     <row r="135">
@@ -4681,13 +3871,13 @@
         <v>1959</v>
       </c>
       <c r="B135" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C135" t="n">
-        <v>19910000000000</v>
+        <v>619825000000000</v>
       </c>
       <c r="D135" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E135" t="n">
         <v>0.087</v>
@@ -4700,12 +3890,6 @@
       </c>
       <c r="H135" t="n">
         <v>0.000206410276152917</v>
-      </c>
-      <c r="I135" t="n">
-        <v>-53697270000000</v>
-      </c>
-      <c r="J135" t="n">
-        <v>-127398486544.342</v>
       </c>
     </row>
     <row r="136">
@@ -4713,13 +3897,13 @@
         <v>1960</v>
       </c>
       <c r="B136" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C136" t="n">
-        <v>19900000000000</v>
+        <v>619825000000000</v>
       </c>
       <c r="D136" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E136" t="n">
         <v>0.087</v>
@@ -4732,12 +3916,6 @@
       </c>
       <c r="H136" t="n">
         <v>0.000206410276152917</v>
-      </c>
-      <c r="I136" t="n">
-        <v>-53670300000000</v>
-      </c>
-      <c r="J136" t="n">
-        <v>-127334499358.735</v>
       </c>
     </row>
     <row r="137">
@@ -4745,13 +3923,13 @@
         <v>1961</v>
       </c>
       <c r="B137" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C137" t="n">
-        <v>19890000000000</v>
+        <v>619825000000000</v>
       </c>
       <c r="D137" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E137" t="n">
         <v>0.087</v>
@@ -4764,12 +3942,6 @@
       </c>
       <c r="H137" t="n">
         <v>0.000206410276152917</v>
-      </c>
-      <c r="I137" t="n">
-        <v>-53643330000000</v>
-      </c>
-      <c r="J137" t="n">
-        <v>-127270512173.127</v>
       </c>
     </row>
     <row r="138">
@@ -4777,13 +3949,13 @@
         <v>1962</v>
       </c>
       <c r="B138" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C138" t="n">
-        <v>19880000000000</v>
+        <v>619825000000000</v>
       </c>
       <c r="D138" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E138" t="n">
         <v>0.087</v>
@@ -4796,12 +3968,6 @@
       </c>
       <c r="H138" t="n">
         <v>0.000206410276152917</v>
-      </c>
-      <c r="I138" t="n">
-        <v>-53616360000000</v>
-      </c>
-      <c r="J138" t="n">
-        <v>-127206524987.52</v>
       </c>
     </row>
     <row r="139">
@@ -4809,13 +3975,13 @@
         <v>1963</v>
       </c>
       <c r="B139" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C139" t="n">
-        <v>19870000000000</v>
+        <v>619825000000000</v>
       </c>
       <c r="D139" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E139" t="n">
         <v>0.087</v>
@@ -4828,12 +3994,6 @@
       </c>
       <c r="H139" t="n">
         <v>0.000206410276152917</v>
-      </c>
-      <c r="I139" t="n">
-        <v>-53589390000000</v>
-      </c>
-      <c r="J139" t="n">
-        <v>-127142537801.912</v>
       </c>
     </row>
     <row r="140">
@@ -4841,13 +4001,13 @@
         <v>1964</v>
       </c>
       <c r="B140" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C140" t="n">
-        <v>19860000000000</v>
+        <v>619825000000000</v>
       </c>
       <c r="D140" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E140" t="n">
         <v>0.087</v>
@@ -4860,12 +4020,6 @@
       </c>
       <c r="H140" t="n">
         <v>0.000206410276152917</v>
-      </c>
-      <c r="I140" t="n">
-        <v>-53562420000000</v>
-      </c>
-      <c r="J140" t="n">
-        <v>-127078550616.305</v>
       </c>
     </row>
     <row r="141">
@@ -4873,13 +4027,13 @@
         <v>1965</v>
       </c>
       <c r="B141" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C141" t="n">
-        <v>19850000000000</v>
+        <v>619825000000000</v>
       </c>
       <c r="D141" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E141" t="n">
         <v>0.087</v>
@@ -4892,12 +4046,6 @@
       </c>
       <c r="H141" t="n">
         <v>0.000206410276152917</v>
-      </c>
-      <c r="I141" t="n">
-        <v>-53535450000000</v>
-      </c>
-      <c r="J141" t="n">
-        <v>-127014563430.698</v>
       </c>
     </row>
     <row r="142">
@@ -4905,13 +4053,13 @@
         <v>1966</v>
       </c>
       <c r="B142" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C142" t="n">
-        <v>19840000000000</v>
+        <v>619825000000000</v>
       </c>
       <c r="D142" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E142" t="n">
         <v>0.087</v>
@@ -4924,12 +4072,6 @@
       </c>
       <c r="H142" t="n">
         <v>0.000206410276152917</v>
-      </c>
-      <c r="I142" t="n">
-        <v>-53508480000000</v>
-      </c>
-      <c r="J142" t="n">
-        <v>-126950576245.09</v>
       </c>
     </row>
     <row r="143">
@@ -4937,13 +4079,13 @@
         <v>1967</v>
       </c>
       <c r="B143" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C143" t="n">
-        <v>19830000000000</v>
+        <v>619825000000000</v>
       </c>
       <c r="D143" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E143" t="n">
         <v>0.087</v>
@@ -4956,12 +4098,6 @@
       </c>
       <c r="H143" t="n">
         <v>0.000206410276152917</v>
-      </c>
-      <c r="I143" t="n">
-        <v>-53481510000000</v>
-      </c>
-      <c r="J143" t="n">
-        <v>-126886589059.483</v>
       </c>
     </row>
     <row r="144">
@@ -4969,13 +4105,13 @@
         <v>1968</v>
       </c>
       <c r="B144" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C144" t="n">
-        <v>19820000000000</v>
+        <v>619825000000000</v>
       </c>
       <c r="D144" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E144" t="n">
         <v>0.087</v>
@@ -4988,12 +4124,6 @@
       </c>
       <c r="H144" t="n">
         <v>0.000206410276152917</v>
-      </c>
-      <c r="I144" t="n">
-        <v>-53454540000000</v>
-      </c>
-      <c r="J144" t="n">
-        <v>-126822601873.875</v>
       </c>
     </row>
     <row r="145">
@@ -5001,13 +4131,13 @@
         <v>1969</v>
       </c>
       <c r="B145" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C145" t="n">
-        <v>19810000000000</v>
+        <v>619825000000000</v>
       </c>
       <c r="D145" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E145" t="n">
         <v>0.087</v>
@@ -5020,12 +4150,6 @@
       </c>
       <c r="H145" t="n">
         <v>0.000206410276152917</v>
-      </c>
-      <c r="I145" t="n">
-        <v>-53427570000000</v>
-      </c>
-      <c r="J145" t="n">
-        <v>-126758614688.268</v>
       </c>
     </row>
     <row r="146">
@@ -5033,13 +4157,13 @@
         <v>1970</v>
       </c>
       <c r="B146" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C146" t="n">
-        <v>19800000000000</v>
+        <v>619825000000000</v>
       </c>
       <c r="D146" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E146" t="n">
         <v>0.087</v>
@@ -5052,12 +4176,6 @@
       </c>
       <c r="H146" t="n">
         <v>0.000206410276152917</v>
-      </c>
-      <c r="I146" t="n">
-        <v>-53400600000000</v>
-      </c>
-      <c r="J146" t="n">
-        <v>-126694627502.661</v>
       </c>
     </row>
     <row r="147">
@@ -5065,13 +4183,13 @@
         <v>1971</v>
       </c>
       <c r="B147" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C147" t="n">
-        <v>19790000000000</v>
+        <v>619825000000000</v>
       </c>
       <c r="D147" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E147" t="n">
         <v>0.087</v>
@@ -5084,12 +4202,6 @@
       </c>
       <c r="H147" t="n">
         <v>0.000206410276152917</v>
-      </c>
-      <c r="I147" t="n">
-        <v>-53373630000000</v>
-      </c>
-      <c r="J147" t="n">
-        <v>-126630640317.053</v>
       </c>
     </row>
     <row r="148">
@@ -5097,13 +4209,13 @@
         <v>1972</v>
       </c>
       <c r="B148" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C148" t="n">
-        <v>19780000000000</v>
+        <v>619825000000000</v>
       </c>
       <c r="D148" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E148" t="n">
         <v>0.087</v>
@@ -5116,12 +4228,6 @@
       </c>
       <c r="H148" t="n">
         <v>0.000206410276152917</v>
-      </c>
-      <c r="I148" t="n">
-        <v>-53346660000000</v>
-      </c>
-      <c r="J148" t="n">
-        <v>-126566653131.446</v>
       </c>
     </row>
     <row r="149">
@@ -5129,13 +4235,13 @@
         <v>1973</v>
       </c>
       <c r="B149" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C149" t="n">
-        <v>19770000000000</v>
+        <v>619825000000000</v>
       </c>
       <c r="D149" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E149" t="n">
         <v>0.087</v>
@@ -5148,12 +4254,6 @@
       </c>
       <c r="H149" t="n">
         <v>0.000206410276152917</v>
-      </c>
-      <c r="I149" t="n">
-        <v>-53319690000000</v>
-      </c>
-      <c r="J149" t="n">
-        <v>-126502665945.838</v>
       </c>
     </row>
     <row r="150">
@@ -5161,13 +4261,13 @@
         <v>1974</v>
       </c>
       <c r="B150" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C150" t="n">
-        <v>19760000000000</v>
+        <v>619825000000000</v>
       </c>
       <c r="D150" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E150" t="n">
         <v>0.087</v>
@@ -5180,12 +4280,6 @@
       </c>
       <c r="H150" t="n">
         <v>0.000206410276152917</v>
-      </c>
-      <c r="I150" t="n">
-        <v>-53292720000000</v>
-      </c>
-      <c r="J150" t="n">
-        <v>-126438678760.231</v>
       </c>
     </row>
     <row r="151">
@@ -5193,13 +4287,13 @@
         <v>1975</v>
       </c>
       <c r="B151" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C151" t="n">
-        <v>19750000000000</v>
+        <v>619825000000000</v>
       </c>
       <c r="D151" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E151" t="n">
         <v>0.087</v>
@@ -5212,12 +4306,6 @@
       </c>
       <c r="H151" t="n">
         <v>0.000206410276152917</v>
-      </c>
-      <c r="I151" t="n">
-        <v>-53265750000000</v>
-      </c>
-      <c r="J151" t="n">
-        <v>-126374691574.624</v>
       </c>
     </row>
     <row r="152">
@@ -5225,13 +4313,13 @@
         <v>1976</v>
       </c>
       <c r="B152" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C152" t="n">
-        <v>19740000000000</v>
+        <v>619825000000000</v>
       </c>
       <c r="D152" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E152" t="n">
         <v>0.087</v>
@@ -5244,12 +4332,6 @@
       </c>
       <c r="H152" t="n">
         <v>0.000206410276152917</v>
-      </c>
-      <c r="I152" t="n">
-        <v>-53238780000000</v>
-      </c>
-      <c r="J152" t="n">
-        <v>-126310704389.016</v>
       </c>
     </row>
     <row r="153">
@@ -5257,13 +4339,13 @@
         <v>1977</v>
       </c>
       <c r="B153" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C153" t="n">
-        <v>19730000000000</v>
+        <v>619825000000000</v>
       </c>
       <c r="D153" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E153" t="n">
         <v>0.087</v>
@@ -5276,12 +4358,6 @@
       </c>
       <c r="H153" t="n">
         <v>0.000206410276152917</v>
-      </c>
-      <c r="I153" t="n">
-        <v>-53211810000000</v>
-      </c>
-      <c r="J153" t="n">
-        <v>-126246717203.409</v>
       </c>
     </row>
     <row r="154">
@@ -5289,13 +4365,13 @@
         <v>1978</v>
       </c>
       <c r="B154" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C154" t="n">
-        <v>19720000000000</v>
+        <v>619825000000000</v>
       </c>
       <c r="D154" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E154" t="n">
         <v>0.087</v>
@@ -5308,12 +4384,6 @@
       </c>
       <c r="H154" t="n">
         <v>0.000206410276152917</v>
-      </c>
-      <c r="I154" t="n">
-        <v>-53184840000000</v>
-      </c>
-      <c r="J154" t="n">
-        <v>-126182730017.801</v>
       </c>
     </row>
     <row r="155">
@@ -5321,13 +4391,13 @@
         <v>1979</v>
       </c>
       <c r="B155" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C155" t="n">
-        <v>19710000000000</v>
+        <v>619825000000000</v>
       </c>
       <c r="D155" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E155" t="n">
         <v>0.087</v>
@@ -5340,12 +4410,6 @@
       </c>
       <c r="H155" t="n">
         <v>0.000206410276152917</v>
-      </c>
-      <c r="I155" t="n">
-        <v>-53157870000000</v>
-      </c>
-      <c r="J155" t="n">
-        <v>-126118742832.194</v>
       </c>
     </row>
     <row r="156">
@@ -5353,13 +4417,13 @@
         <v>1980</v>
       </c>
       <c r="B156" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C156" t="n">
-        <v>19700000000000</v>
+        <v>619825000000000</v>
       </c>
       <c r="D156" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E156" t="n">
         <v>0.087</v>
@@ -5372,12 +4436,6 @@
       </c>
       <c r="H156" t="n">
         <v>0.000206410276152917</v>
-      </c>
-      <c r="I156" t="n">
-        <v>-53130900000000</v>
-      </c>
-      <c r="J156" t="n">
-        <v>-126054755646.587</v>
       </c>
     </row>
     <row r="157">
@@ -5385,13 +4443,13 @@
         <v>1981</v>
       </c>
       <c r="B157" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C157" t="n">
-        <v>19690000000000</v>
+        <v>619825000000000</v>
       </c>
       <c r="D157" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E157" t="n">
         <v>0.087</v>
@@ -5404,12 +4462,6 @@
       </c>
       <c r="H157" t="n">
         <v>0.000206410276152917</v>
-      </c>
-      <c r="I157" t="n">
-        <v>-53103930000000</v>
-      </c>
-      <c r="J157" t="n">
-        <v>-125990768460.979</v>
       </c>
     </row>
     <row r="158">
@@ -5417,13 +4469,13 @@
         <v>1982</v>
       </c>
       <c r="B158" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C158" t="n">
-        <v>19680000000000</v>
+        <v>619825000000000</v>
       </c>
       <c r="D158" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E158" t="n">
         <v>0.087</v>
@@ -5436,12 +4488,6 @@
       </c>
       <c r="H158" t="n">
         <v>0.000206410276152917</v>
-      </c>
-      <c r="I158" t="n">
-        <v>-53076960000000</v>
-      </c>
-      <c r="J158" t="n">
-        <v>-125926781275.372</v>
       </c>
     </row>
     <row r="159">
@@ -5449,13 +4495,13 @@
         <v>1983</v>
       </c>
       <c r="B159" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C159" t="n">
-        <v>19670000000000</v>
+        <v>619825000000000</v>
       </c>
       <c r="D159" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E159" t="n">
         <v>0.087</v>
@@ -5468,12 +4514,6 @@
       </c>
       <c r="H159" t="n">
         <v>0.000206410276152917</v>
-      </c>
-      <c r="I159" t="n">
-        <v>-53049990000000</v>
-      </c>
-      <c r="J159" t="n">
-        <v>-125862794089.764</v>
       </c>
     </row>
     <row r="160">
@@ -5481,13 +4521,13 @@
         <v>1984</v>
       </c>
       <c r="B160" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C160" t="n">
-        <v>19660000000000</v>
+        <v>619825000000000</v>
       </c>
       <c r="D160" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E160" t="n">
         <v>0.087</v>
@@ -5500,12 +4540,6 @@
       </c>
       <c r="H160" t="n">
         <v>0.000206410276152917</v>
-      </c>
-      <c r="I160" t="n">
-        <v>-53023020000000</v>
-      </c>
-      <c r="J160" t="n">
-        <v>-125798806904.157</v>
       </c>
     </row>
     <row r="161">
@@ -5513,13 +4547,13 @@
         <v>1985</v>
       </c>
       <c r="B161" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C161" t="n">
-        <v>19650000000000</v>
+        <v>619825000000000</v>
       </c>
       <c r="D161" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E161" t="n">
         <v>0.087</v>
@@ -5532,12 +4566,6 @@
       </c>
       <c r="H161" t="n">
         <v>0.000206410276152917</v>
-      </c>
-      <c r="I161" t="n">
-        <v>-52996050000000</v>
-      </c>
-      <c r="J161" t="n">
-        <v>-125734819718.55</v>
       </c>
     </row>
     <row r="162">
@@ -5545,13 +4573,13 @@
         <v>1986</v>
       </c>
       <c r="B162" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C162" t="n">
-        <v>19640000000000</v>
+        <v>619825000000000</v>
       </c>
       <c r="D162" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E162" t="n">
         <v>0.087</v>
@@ -5564,12 +4592,6 @@
       </c>
       <c r="H162" t="n">
         <v>0.000206410276152917</v>
-      </c>
-      <c r="I162" t="n">
-        <v>-52969080000000</v>
-      </c>
-      <c r="J162" t="n">
-        <v>-125670832532.942</v>
       </c>
     </row>
     <row r="163">
@@ -5577,13 +4599,13 @@
         <v>1987</v>
       </c>
       <c r="B163" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C163" t="n">
-        <v>19630000000000</v>
+        <v>619825000000000</v>
       </c>
       <c r="D163" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E163" t="n">
         <v>0.087</v>
@@ -5596,12 +4618,6 @@
       </c>
       <c r="H163" t="n">
         <v>0.000206410276152917</v>
-      </c>
-      <c r="I163" t="n">
-        <v>-52942110000000</v>
-      </c>
-      <c r="J163" t="n">
-        <v>-125606845347.335</v>
       </c>
     </row>
     <row r="164">
@@ -5609,13 +4625,13 @@
         <v>1988</v>
       </c>
       <c r="B164" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C164" t="n">
-        <v>19620000000000</v>
+        <v>619825000000000</v>
       </c>
       <c r="D164" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E164" t="n">
         <v>0.087</v>
@@ -5628,12 +4644,6 @@
       </c>
       <c r="H164" t="n">
         <v>0.000206410276152917</v>
-      </c>
-      <c r="I164" t="n">
-        <v>-52915140000000</v>
-      </c>
-      <c r="J164" t="n">
-        <v>-125542858161.727</v>
       </c>
     </row>
     <row r="165">
@@ -5641,13 +4651,13 @@
         <v>1989</v>
       </c>
       <c r="B165" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C165" t="n">
-        <v>19610000000000</v>
+        <v>619825000000000</v>
       </c>
       <c r="D165" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E165" t="n">
         <v>0.087</v>
@@ -5660,12 +4670,6 @@
       </c>
       <c r="H165" t="n">
         <v>0.000206410276152917</v>
-      </c>
-      <c r="I165" t="n">
-        <v>-52888170000000</v>
-      </c>
-      <c r="J165" t="n">
-        <v>-125478870976.12</v>
       </c>
     </row>
     <row r="166">
@@ -5673,13 +4677,13 @@
         <v>1990</v>
       </c>
       <c r="B166" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C166" t="n">
-        <v>19600000000000</v>
+        <v>619825000000000</v>
       </c>
       <c r="D166" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E166" t="n">
         <v>0.087</v>
@@ -5692,12 +4696,6 @@
       </c>
       <c r="H166" t="n">
         <v>0.000206410276152917</v>
-      </c>
-      <c r="I166" t="n">
-        <v>-52861200000000</v>
-      </c>
-      <c r="J166" t="n">
-        <v>-125414883790.513</v>
       </c>
     </row>
     <row r="167">
@@ -5705,13 +4703,13 @@
         <v>1991</v>
       </c>
       <c r="B167" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C167" t="n">
-        <v>19590000000000</v>
+        <v>619825000000000</v>
       </c>
       <c r="D167" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E167" t="n">
         <v>0.087</v>
@@ -5724,12 +4722,6 @@
       </c>
       <c r="H167" t="n">
         <v>0.000206410276152917</v>
-      </c>
-      <c r="I167" t="n">
-        <v>-52834230000000</v>
-      </c>
-      <c r="J167" t="n">
-        <v>-125350896604.905</v>
       </c>
     </row>
     <row r="168">
@@ -5737,13 +4729,13 @@
         <v>1992</v>
       </c>
       <c r="B168" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C168" t="n">
-        <v>19580000000000</v>
+        <v>619825000000000</v>
       </c>
       <c r="D168" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E168" t="n">
         <v>0.087</v>
@@ -5756,12 +4748,6 @@
       </c>
       <c r="H168" t="n">
         <v>0.000206410276152917</v>
-      </c>
-      <c r="I168" t="n">
-        <v>-52807260000000</v>
-      </c>
-      <c r="J168" t="n">
-        <v>-125286909419.298</v>
       </c>
     </row>
     <row r="169">
@@ -5769,13 +4755,13 @@
         <v>1993</v>
       </c>
       <c r="B169" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C169" t="n">
-        <v>19570000000000</v>
+        <v>619825000000000</v>
       </c>
       <c r="D169" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E169" t="n">
         <v>0.087</v>
@@ -5788,12 +4774,6 @@
       </c>
       <c r="H169" t="n">
         <v>0.000206410276152917</v>
-      </c>
-      <c r="I169" t="n">
-        <v>-52780290000000</v>
-      </c>
-      <c r="J169" t="n">
-        <v>-125222922233.69</v>
       </c>
     </row>
     <row r="170">
@@ -5801,13 +4781,13 @@
         <v>1994</v>
       </c>
       <c r="B170" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C170" t="n">
-        <v>19560000000000</v>
+        <v>619825000000000</v>
       </c>
       <c r="D170" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E170" t="n">
         <v>0.087</v>
@@ -5820,12 +4800,6 @@
       </c>
       <c r="H170" t="n">
         <v>0.000206410276152917</v>
-      </c>
-      <c r="I170" t="n">
-        <v>-52753320000000</v>
-      </c>
-      <c r="J170" t="n">
-        <v>-125158935048.083</v>
       </c>
     </row>
     <row r="171">
@@ -5833,13 +4807,13 @@
         <v>1995</v>
       </c>
       <c r="B171" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C171" t="n">
-        <v>19550000000000</v>
+        <v>619825000000000</v>
       </c>
       <c r="D171" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E171" t="n">
         <v>0.087</v>
@@ -5852,12 +4826,6 @@
       </c>
       <c r="H171" t="n">
         <v>0.000206410276152917</v>
-      </c>
-      <c r="I171" t="n">
-        <v>-52726350000000</v>
-      </c>
-      <c r="J171" t="n">
-        <v>-125094947862.476</v>
       </c>
     </row>
     <row r="172">
@@ -5865,13 +4833,13 @@
         <v>1996</v>
       </c>
       <c r="B172" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C172" t="n">
-        <v>19540000000000</v>
+        <v>619825000000000</v>
       </c>
       <c r="D172" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E172" t="n">
         <v>0.087</v>
@@ -5884,12 +4852,6 @@
       </c>
       <c r="H172" t="n">
         <v>0.000206410276152917</v>
-      </c>
-      <c r="I172" t="n">
-        <v>-52699380000000</v>
-      </c>
-      <c r="J172" t="n">
-        <v>-125030960676.868</v>
       </c>
     </row>
     <row r="173">
@@ -5897,13 +4859,13 @@
         <v>1997</v>
       </c>
       <c r="B173" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C173" t="n">
-        <v>19530000000000</v>
+        <v>619825000000000</v>
       </c>
       <c r="D173" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E173" t="n">
         <v>0.087</v>
@@ -5916,12 +4878,6 @@
       </c>
       <c r="H173" t="n">
         <v>0.000206410276152917</v>
-      </c>
-      <c r="I173" t="n">
-        <v>-52672410000000</v>
-      </c>
-      <c r="J173" t="n">
-        <v>-124966973491.261</v>
       </c>
     </row>
     <row r="174">
@@ -5929,13 +4885,13 @@
         <v>1998</v>
       </c>
       <c r="B174" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C174" t="n">
-        <v>19520000000000</v>
+        <v>619825000000000</v>
       </c>
       <c r="D174" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E174" t="n">
         <v>0.087</v>
@@ -5948,12 +4904,6 @@
       </c>
       <c r="H174" t="n">
         <v>0.000206410276152917</v>
-      </c>
-      <c r="I174" t="n">
-        <v>-52645440000000</v>
-      </c>
-      <c r="J174" t="n">
-        <v>-124902986305.653</v>
       </c>
     </row>
     <row r="175">
@@ -5961,13 +4911,13 @@
         <v>1999</v>
       </c>
       <c r="B175" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C175" t="n">
-        <v>19510000000000</v>
+        <v>619825000000000</v>
       </c>
       <c r="D175" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E175" t="n">
         <v>0.087</v>
@@ -5980,12 +4930,6 @@
       </c>
       <c r="H175" t="n">
         <v>0.000206410276152917</v>
-      </c>
-      <c r="I175" t="n">
-        <v>-52618470000000</v>
-      </c>
-      <c r="J175" t="n">
-        <v>-124838999120.046</v>
       </c>
     </row>
     <row r="176">
@@ -5993,13 +4937,13 @@
         <v>2000</v>
       </c>
       <c r="B176" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C176" t="n">
-        <v>19500000000000</v>
+        <v>619825000000000</v>
       </c>
       <c r="D176" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E176" t="n">
         <v>0.087</v>
@@ -6012,12 +4956,6 @@
       </c>
       <c r="H176" t="n">
         <v>0.000206410276152917</v>
-      </c>
-      <c r="I176" t="n">
-        <v>-52591500000000</v>
-      </c>
-      <c r="J176" t="n">
-        <v>-124775011934.439</v>
       </c>
     </row>
     <row r="177">
@@ -6025,13 +4963,13 @@
         <v>2001</v>
       </c>
       <c r="B177" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C177" t="n">
-        <v>19490000000000</v>
+        <v>619825000000000</v>
       </c>
       <c r="D177" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E177" t="n">
         <v>0.087</v>
@@ -6044,12 +4982,6 @@
       </c>
       <c r="H177" t="n">
         <v>0.000206410276152917</v>
-      </c>
-      <c r="I177" t="n">
-        <v>-52564530000000</v>
-      </c>
-      <c r="J177" t="n">
-        <v>-124711024748.831</v>
       </c>
     </row>
     <row r="178">
@@ -6057,13 +4989,13 @@
         <v>2002</v>
       </c>
       <c r="B178" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C178" t="n">
-        <v>19480000000000</v>
+        <v>619825000000000</v>
       </c>
       <c r="D178" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E178" t="n">
         <v>0.087</v>
@@ -6076,12 +5008,6 @@
       </c>
       <c r="H178" t="n">
         <v>0.000206410276152917</v>
-      </c>
-      <c r="I178" t="n">
-        <v>-52537560000000</v>
-      </c>
-      <c r="J178" t="n">
-        <v>-124647037563.224</v>
       </c>
     </row>
     <row r="179">
@@ -6089,13 +5015,13 @@
         <v>2003</v>
       </c>
       <c r="B179" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C179" t="n">
-        <v>19470000000000</v>
+        <v>619825000000000</v>
       </c>
       <c r="D179" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E179" t="n">
         <v>0.087</v>
@@ -6108,12 +5034,6 @@
       </c>
       <c r="H179" t="n">
         <v>0.000206410276152917</v>
-      </c>
-      <c r="I179" t="n">
-        <v>-52510590000000</v>
-      </c>
-      <c r="J179" t="n">
-        <v>-124583050377.616</v>
       </c>
     </row>
     <row r="180">
@@ -6121,13 +5041,13 @@
         <v>2004</v>
       </c>
       <c r="B180" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C180" t="n">
-        <v>19460000000000</v>
+        <v>619825000000000</v>
       </c>
       <c r="D180" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E180" t="n">
         <v>0.087</v>
@@ -6140,12 +5060,6 @@
       </c>
       <c r="H180" t="n">
         <v>0.000206410276152917</v>
-      </c>
-      <c r="I180" t="n">
-        <v>-52483620000000</v>
-      </c>
-      <c r="J180" t="n">
-        <v>-124519063192.009</v>
       </c>
     </row>
     <row r="181">
@@ -6153,13 +5067,13 @@
         <v>2005</v>
       </c>
       <c r="B181" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C181" t="n">
-        <v>19450000000000</v>
+        <v>619825000000000</v>
       </c>
       <c r="D181" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E181" t="n">
         <v>0.087</v>
@@ -6172,12 +5086,6 @@
       </c>
       <c r="H181" t="n">
         <v>0.000206410276152917</v>
-      </c>
-      <c r="I181" t="n">
-        <v>-52456650000000</v>
-      </c>
-      <c r="J181" t="n">
-        <v>-124455076006.402</v>
       </c>
     </row>
     <row r="182">
@@ -6185,13 +5093,13 @@
         <v>2006</v>
       </c>
       <c r="B182" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C182" t="n">
-        <v>19440000000000</v>
+        <v>619825000000000</v>
       </c>
       <c r="D182" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E182" t="n">
         <v>0.087</v>
@@ -6204,12 +5112,6 @@
       </c>
       <c r="H182" t="n">
         <v>0.000206410276152917</v>
-      </c>
-      <c r="I182" t="n">
-        <v>-52429680000000</v>
-      </c>
-      <c r="J182" t="n">
-        <v>-124391088820.794</v>
       </c>
     </row>
     <row r="183">
@@ -6217,13 +5119,13 @@
         <v>2007</v>
       </c>
       <c r="B183" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C183" t="n">
-        <v>19430000000000</v>
+        <v>619825000000000</v>
       </c>
       <c r="D183" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E183" t="n">
         <v>0.087</v>
@@ -6236,12 +5138,6 @@
       </c>
       <c r="H183" t="n">
         <v>0.000206410276152917</v>
-      </c>
-      <c r="I183" t="n">
-        <v>-52402710000000</v>
-      </c>
-      <c r="J183" t="n">
-        <v>-124327101635.187</v>
       </c>
     </row>
     <row r="184">
@@ -6249,13 +5145,13 @@
         <v>2008</v>
       </c>
       <c r="B184" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C184" t="n">
-        <v>19420000000000</v>
+        <v>619825000000000</v>
       </c>
       <c r="D184" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E184" t="n">
         <v>0.087</v>
@@ -6268,12 +5164,6 @@
       </c>
       <c r="H184" t="n">
         <v>0.000206410276152917</v>
-      </c>
-      <c r="I184" t="n">
-        <v>-52375740000000</v>
-      </c>
-      <c r="J184" t="n">
-        <v>-124263114449.579</v>
       </c>
     </row>
     <row r="185">
@@ -6281,13 +5171,13 @@
         <v>2009</v>
       </c>
       <c r="B185" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C185" t="n">
-        <v>19410000000000</v>
+        <v>619825000000000</v>
       </c>
       <c r="D185" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E185" t="n">
         <v>0.087</v>
@@ -6300,12 +5190,6 @@
       </c>
       <c r="H185" t="n">
         <v>0.000206410276152917</v>
-      </c>
-      <c r="I185" t="n">
-        <v>-52348770000000</v>
-      </c>
-      <c r="J185" t="n">
-        <v>-124199127263.972</v>
       </c>
     </row>
     <row r="186">
@@ -6313,13 +5197,13 @@
         <v>2010</v>
       </c>
       <c r="B186" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C186" t="n">
-        <v>19400000000000</v>
+        <v>619825000000000</v>
       </c>
       <c r="D186" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E186" t="n">
         <v>0.087</v>
@@ -6332,12 +5216,6 @@
       </c>
       <c r="H186" t="n">
         <v>0.000206410276152917</v>
-      </c>
-      <c r="I186" t="n">
-        <v>-52321800000000</v>
-      </c>
-      <c r="J186" t="n">
-        <v>-124135140078.364</v>
       </c>
     </row>
     <row r="187">
@@ -6345,13 +5223,13 @@
         <v>2011</v>
       </c>
       <c r="B187" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C187" t="n">
-        <v>19390000000000</v>
+        <v>619825000000000</v>
       </c>
       <c r="D187" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E187" t="n">
         <v>0.087</v>
@@ -6364,12 +5242,6 @@
       </c>
       <c r="H187" t="n">
         <v>0.000206410276152917</v>
-      </c>
-      <c r="I187" t="n">
-        <v>-52294830000000</v>
-      </c>
-      <c r="J187" t="n">
-        <v>-124071152892.757</v>
       </c>
     </row>
     <row r="188">
@@ -6377,13 +5249,13 @@
         <v>2012</v>
       </c>
       <c r="B188" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C188" t="n">
-        <v>19380000000000</v>
+        <v>619825000000000</v>
       </c>
       <c r="D188" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E188" t="n">
         <v>0.087</v>
@@ -6396,12 +5268,6 @@
       </c>
       <c r="H188" t="n">
         <v>0.000206410276152917</v>
-      </c>
-      <c r="I188" t="n">
-        <v>-52267860000000</v>
-      </c>
-      <c r="J188" t="n">
-        <v>-124007165707.15</v>
       </c>
     </row>
     <row r="189">
@@ -6409,13 +5275,13 @@
         <v>2013</v>
       </c>
       <c r="B189" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C189" t="n">
-        <v>19370000000000</v>
+        <v>619825000000000</v>
       </c>
       <c r="D189" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E189" t="n">
         <v>0.087</v>
@@ -6428,12 +5294,6 @@
       </c>
       <c r="H189" t="n">
         <v>0.000206410276152917</v>
-      </c>
-      <c r="I189" t="n">
-        <v>-52240890000000</v>
-      </c>
-      <c r="J189" t="n">
-        <v>-123943178521.542</v>
       </c>
     </row>
     <row r="190">
@@ -6441,13 +5301,13 @@
         <v>2014</v>
       </c>
       <c r="B190" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C190" t="n">
-        <v>19360000000000</v>
+        <v>619825000000000</v>
       </c>
       <c r="D190" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E190" t="n">
         <v>0.087</v>
@@ -6460,12 +5320,6 @@
       </c>
       <c r="H190" t="n">
         <v>0.000206410276152917</v>
-      </c>
-      <c r="I190" t="n">
-        <v>-52213920000000</v>
-      </c>
-      <c r="J190" t="n">
-        <v>-123879191335.935</v>
       </c>
     </row>
     <row r="191">
@@ -6473,13 +5327,13 @@
         <v>2015</v>
       </c>
       <c r="B191" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C191" t="n">
-        <v>19350000000000</v>
+        <v>619825000000000</v>
       </c>
       <c r="D191" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E191" t="n">
         <v>0.087</v>
@@ -6492,12 +5346,6 @@
       </c>
       <c r="H191" t="n">
         <v>0.000206410276152917</v>
-      </c>
-      <c r="I191" t="n">
-        <v>-52186950000000</v>
-      </c>
-      <c r="J191" t="n">
-        <v>-123815204150.327</v>
       </c>
     </row>
     <row r="192">
@@ -6505,13 +5353,13 @@
         <v>2016</v>
       </c>
       <c r="B192" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C192" t="n">
-        <v>19340000000000</v>
+        <v>619825000000000</v>
       </c>
       <c r="D192" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E192" t="n">
         <v>0.087</v>
@@ -6524,12 +5372,6 @@
       </c>
       <c r="H192" t="n">
         <v>0.000206410276152917</v>
-      </c>
-      <c r="I192" t="n">
-        <v>-52159980000000</v>
-      </c>
-      <c r="J192" t="n">
-        <v>-123751216964.72</v>
       </c>
     </row>
     <row r="193">
@@ -6537,13 +5379,13 @@
         <v>2017</v>
       </c>
       <c r="B193" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C193" t="n">
-        <v>19330000000000</v>
+        <v>619825000000000</v>
       </c>
       <c r="D193" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E193" t="n">
         <v>0.087</v>
@@ -6556,12 +5398,6 @@
       </c>
       <c r="H193" t="n">
         <v>0.000206410276152917</v>
-      </c>
-      <c r="I193" t="n">
-        <v>-52133010000000</v>
-      </c>
-      <c r="J193" t="n">
-        <v>-123687229779.113</v>
       </c>
     </row>
     <row r="194">
@@ -6569,13 +5405,13 @@
         <v>2018</v>
       </c>
       <c r="B194" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C194" t="n">
-        <v>19320000000000</v>
+        <v>619825000000000</v>
       </c>
       <c r="D194" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E194" t="n">
         <v>0.087</v>
@@ -6588,12 +5424,6 @@
       </c>
       <c r="H194" t="n">
         <v>0.000206410276152917</v>
-      </c>
-      <c r="I194" t="n">
-        <v>-52106040000000</v>
-      </c>
-      <c r="J194" t="n">
-        <v>-123623242593.505</v>
       </c>
     </row>
     <row r="195">
@@ -6601,13 +5431,13 @@
         <v>2019</v>
       </c>
       <c r="B195" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C195" t="n">
-        <v>19310000000000</v>
+        <v>619825000000000</v>
       </c>
       <c r="D195" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E195" t="n">
         <v>0.087</v>
@@ -6620,12 +5450,6 @@
       </c>
       <c r="H195" t="n">
         <v>0.000206410276152917</v>
-      </c>
-      <c r="I195" t="n">
-        <v>-52079070000000</v>
-      </c>
-      <c r="J195" t="n">
-        <v>-123559255407.898</v>
       </c>
     </row>
     <row r="196">
@@ -6633,13 +5457,13 @@
         <v>2020</v>
       </c>
       <c r="B196" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C196" t="n">
-        <v>19300000000000</v>
+        <v>619825000000000</v>
       </c>
       <c r="D196" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E196" t="n">
         <v>0.087</v>
@@ -6652,12 +5476,6 @@
       </c>
       <c r="H196" t="n">
         <v>0.000206410276152917</v>
-      </c>
-      <c r="I196" t="n">
-        <v>-52052100000000</v>
-      </c>
-      <c r="J196" t="n">
-        <v>-123495268222.29</v>
       </c>
     </row>
     <row r="197">
@@ -6665,13 +5483,13 @@
         <v>2021</v>
       </c>
       <c r="B197" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C197" t="n">
-        <v>19290000000000</v>
+        <v>619825000000000</v>
       </c>
       <c r="D197" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E197" t="n">
         <v>0.087</v>
@@ -6684,12 +5502,6 @@
       </c>
       <c r="H197" t="n">
         <v>0.000206410276152917</v>
-      </c>
-      <c r="I197" t="n">
-        <v>-52025130000000</v>
-      </c>
-      <c r="J197" t="n">
-        <v>-123431281036.683</v>
       </c>
     </row>
     <row r="198">
@@ -6697,13 +5509,13 @@
         <v>2022</v>
       </c>
       <c r="B198" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C198" t="n">
-        <v>19280000000000</v>
+        <v>619825000000000</v>
       </c>
       <c r="D198" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E198" t="n">
         <v>0.087</v>
@@ -6716,12 +5528,6 @@
       </c>
       <c r="H198" t="n">
         <v>0.000206410276152917</v>
-      </c>
-      <c r="I198" t="n">
-        <v>-51998160000000</v>
-      </c>
-      <c r="J198" t="n">
-        <v>-123367293851.076</v>
       </c>
     </row>
     <row r="199">
@@ -6729,13 +5535,13 @@
         <v>2023</v>
       </c>
       <c r="B199" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C199" t="n">
-        <v>19270000000000</v>
+        <v>619825000000000</v>
       </c>
       <c r="D199" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E199" t="n">
         <v>0.087</v>
@@ -6748,12 +5554,6 @@
       </c>
       <c r="H199" t="n">
         <v>0.000206410276152917</v>
-      </c>
-      <c r="I199" t="n">
-        <v>-51971190000000</v>
-      </c>
-      <c r="J199" t="n">
-        <v>-123303306665.468</v>
       </c>
     </row>
     <row r="200">
@@ -6761,13 +5561,13 @@
         <v>2024</v>
       </c>
       <c r="B200" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C200" t="n">
-        <v>19260000000000</v>
+        <v>619825000000000</v>
       </c>
       <c r="D200" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E200" t="n">
         <v>0.087</v>
@@ -6780,12 +5580,6 @@
       </c>
       <c r="H200" t="n">
         <v>0.000206410276152917</v>
-      </c>
-      <c r="I200" t="n">
-        <v>-51944220000000</v>
-      </c>
-      <c r="J200" t="n">
-        <v>-123239319479.861</v>
       </c>
     </row>
     <row r="201">
@@ -6793,13 +5587,13 @@
         <v>2025</v>
       </c>
       <c r="B201" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C201" t="n">
-        <v>19250000000000</v>
+        <v>619825000000000</v>
       </c>
       <c r="D201" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E201" t="n">
         <v>0.087</v>
@@ -6812,12 +5606,6 @@
       </c>
       <c r="H201" t="n">
         <v>0.000206410276152917</v>
-      </c>
-      <c r="I201" t="n">
-        <v>-51917250000000</v>
-      </c>
-      <c r="J201" t="n">
-        <v>-123175332294.253</v>
       </c>
     </row>
     <row r="202">
@@ -6825,13 +5613,13 @@
         <v>1950</v>
       </c>
       <c r="B202" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C202" t="n">
         <v>10000000000000000000</v>
       </c>
       <c r="D202" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E202" t="n">
         <v>0.001</v>
@@ -6844,12 +5632,6 @@
       </c>
       <c r="H202" t="n">
         <v>0.000000407730571638261</v>
-      </c>
-      <c r="I202" t="n">
-        <v>-420000000000000000</v>
-      </c>
-      <c r="J202" t="n">
-        <v>-171246840088070</v>
       </c>
     </row>
     <row r="203">
@@ -6857,13 +5639,13 @@
         <v>1951</v>
       </c>
       <c r="B203" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C203" t="n">
-        <v>10010000000000000000</v>
+        <v>10000000000000000000</v>
       </c>
       <c r="D203" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E203" t="n">
         <v>0.001</v>
@@ -6876,12 +5658,6 @@
       </c>
       <c r="H203" t="n">
         <v>0.000000407730571638261</v>
-      </c>
-      <c r="I203" t="n">
-        <v>-420420000000000000</v>
-      </c>
-      <c r="J203" t="n">
-        <v>-171418086928158</v>
       </c>
     </row>
     <row r="204">
@@ -6889,13 +5665,13 @@
         <v>1952</v>
       </c>
       <c r="B204" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C204" t="n">
-        <v>10020000000000000000</v>
+        <v>10000000000000000000</v>
       </c>
       <c r="D204" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E204" t="n">
         <v>0.001</v>
@@ -6908,12 +5684,6 @@
       </c>
       <c r="H204" t="n">
         <v>0.000000407730571638261</v>
-      </c>
-      <c r="I204" t="n">
-        <v>-420840000000000000</v>
-      </c>
-      <c r="J204" t="n">
-        <v>-171589333768246</v>
       </c>
     </row>
     <row r="205">
@@ -6921,13 +5691,13 @@
         <v>1953</v>
       </c>
       <c r="B205" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C205" t="n">
-        <v>10030000000000000000</v>
+        <v>10000000000000000000</v>
       </c>
       <c r="D205" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E205" t="n">
         <v>0.001</v>
@@ -6940,12 +5710,6 @@
       </c>
       <c r="H205" t="n">
         <v>0.000000407730571638261</v>
-      </c>
-      <c r="I205" t="n">
-        <v>-421260000000000000</v>
-      </c>
-      <c r="J205" t="n">
-        <v>-171760580608334</v>
       </c>
     </row>
     <row r="206">
@@ -6953,13 +5717,13 @@
         <v>1954</v>
       </c>
       <c r="B206" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C206" t="n">
-        <v>10040000000000000000</v>
+        <v>10000000000000000000</v>
       </c>
       <c r="D206" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E206" t="n">
         <v>0.001</v>
@@ -6972,12 +5736,6 @@
       </c>
       <c r="H206" t="n">
         <v>0.000000407730571638261</v>
-      </c>
-      <c r="I206" t="n">
-        <v>-421680000000000000</v>
-      </c>
-      <c r="J206" t="n">
-        <v>-171931827448422</v>
       </c>
     </row>
     <row r="207">
@@ -6985,13 +5743,13 @@
         <v>1955</v>
       </c>
       <c r="B207" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C207" t="n">
-        <v>10050000000000000000</v>
+        <v>10000000000000000000</v>
       </c>
       <c r="D207" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E207" t="n">
         <v>0.001</v>
@@ -7004,12 +5762,6 @@
       </c>
       <c r="H207" t="n">
         <v>0.000000407730571638261</v>
-      </c>
-      <c r="I207" t="n">
-        <v>-422100000000000000</v>
-      </c>
-      <c r="J207" t="n">
-        <v>-172103074288510</v>
       </c>
     </row>
     <row r="208">
@@ -7017,13 +5769,13 @@
         <v>1956</v>
       </c>
       <c r="B208" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C208" t="n">
-        <v>10060000000000000000</v>
+        <v>10000000000000000000</v>
       </c>
       <c r="D208" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E208" t="n">
         <v>0.001</v>
@@ -7036,12 +5788,6 @@
       </c>
       <c r="H208" t="n">
         <v>0.000000407730571638261</v>
-      </c>
-      <c r="I208" t="n">
-        <v>-422520000000000000</v>
-      </c>
-      <c r="J208" t="n">
-        <v>-172274321128598</v>
       </c>
     </row>
     <row r="209">
@@ -7049,13 +5795,13 @@
         <v>1957</v>
       </c>
       <c r="B209" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C209" t="n">
-        <v>10070000000000000000</v>
+        <v>10000000000000000000</v>
       </c>
       <c r="D209" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E209" t="n">
         <v>0.001</v>
@@ -7068,12 +5814,6 @@
       </c>
       <c r="H209" t="n">
         <v>0.000000407730571638261</v>
-      </c>
-      <c r="I209" t="n">
-        <v>-422940000000000000</v>
-      </c>
-      <c r="J209" t="n">
-        <v>-172445567968686</v>
       </c>
     </row>
     <row r="210">
@@ -7081,13 +5821,13 @@
         <v>1958</v>
       </c>
       <c r="B210" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C210" t="n">
-        <v>10080000000000000000</v>
+        <v>10000000000000000000</v>
       </c>
       <c r="D210" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E210" t="n">
         <v>0.001</v>
@@ -7100,12 +5840,6 @@
       </c>
       <c r="H210" t="n">
         <v>0.000000407730571638261</v>
-      </c>
-      <c r="I210" t="n">
-        <v>-423360000000000000</v>
-      </c>
-      <c r="J210" t="n">
-        <v>-172616814808774</v>
       </c>
     </row>
     <row r="211">
@@ -7113,13 +5847,13 @@
         <v>1959</v>
       </c>
       <c r="B211" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C211" t="n">
-        <v>10090000000000000000</v>
+        <v>10000000000000000000</v>
       </c>
       <c r="D211" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E211" t="n">
         <v>0.001</v>
@@ -7132,12 +5866,6 @@
       </c>
       <c r="H211" t="n">
         <v>0.000000407730571638261</v>
-      </c>
-      <c r="I211" t="n">
-        <v>-423780000000000000</v>
-      </c>
-      <c r="J211" t="n">
-        <v>-172788061648862</v>
       </c>
     </row>
     <row r="212">
@@ -7145,13 +5873,13 @@
         <v>1960</v>
       </c>
       <c r="B212" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C212" t="n">
-        <v>10100000000000000000</v>
+        <v>10000000000000000000</v>
       </c>
       <c r="D212" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E212" t="n">
         <v>0.001</v>
@@ -7164,12 +5892,6 @@
       </c>
       <c r="H212" t="n">
         <v>0.000000407730571638261</v>
-      </c>
-      <c r="I212" t="n">
-        <v>-424200000000000000</v>
-      </c>
-      <c r="J212" t="n">
-        <v>-172959308488950</v>
       </c>
     </row>
     <row r="213">
@@ -7177,13 +5899,13 @@
         <v>1961</v>
       </c>
       <c r="B213" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C213" t="n">
-        <v>10110000000000000000</v>
+        <v>10000000000000000000</v>
       </c>
       <c r="D213" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E213" t="n">
         <v>0.001</v>
@@ -7196,12 +5918,6 @@
       </c>
       <c r="H213" t="n">
         <v>0.000000407730571638261</v>
-      </c>
-      <c r="I213" t="n">
-        <v>-424620000000000000</v>
-      </c>
-      <c r="J213" t="n">
-        <v>-173130555329039</v>
       </c>
     </row>
     <row r="214">
@@ -7209,13 +5925,13 @@
         <v>1962</v>
       </c>
       <c r="B214" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C214" t="n">
-        <v>10120000000000000000</v>
+        <v>10000000000000000000</v>
       </c>
       <c r="D214" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E214" t="n">
         <v>0.001</v>
@@ -7228,12 +5944,6 @@
       </c>
       <c r="H214" t="n">
         <v>0.000000407730571638261</v>
-      </c>
-      <c r="I214" t="n">
-        <v>-425040000000000000</v>
-      </c>
-      <c r="J214" t="n">
-        <v>-173301802169127</v>
       </c>
     </row>
     <row r="215">
@@ -7241,13 +5951,13 @@
         <v>1963</v>
       </c>
       <c r="B215" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C215" t="n">
-        <v>10130000000000000000</v>
+        <v>10000000000000000000</v>
       </c>
       <c r="D215" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E215" t="n">
         <v>0.001</v>
@@ -7260,12 +5970,6 @@
       </c>
       <c r="H215" t="n">
         <v>0.000000407730571638261</v>
-      </c>
-      <c r="I215" t="n">
-        <v>-425460000000000000</v>
-      </c>
-      <c r="J215" t="n">
-        <v>-173473049009215</v>
       </c>
     </row>
     <row r="216">
@@ -7273,13 +5977,13 @@
         <v>1964</v>
       </c>
       <c r="B216" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C216" t="n">
-        <v>10140000000000000000</v>
+        <v>10000000000000000000</v>
       </c>
       <c r="D216" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E216" t="n">
         <v>0.001</v>
@@ -7292,12 +5996,6 @@
       </c>
       <c r="H216" t="n">
         <v>0.000000407730571638261</v>
-      </c>
-      <c r="I216" t="n">
-        <v>-425880000000000000</v>
-      </c>
-      <c r="J216" t="n">
-        <v>-173644295849303</v>
       </c>
     </row>
     <row r="217">
@@ -7305,13 +6003,13 @@
         <v>1965</v>
       </c>
       <c r="B217" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C217" t="n">
-        <v>10150000000000000000</v>
+        <v>10000000000000000000</v>
       </c>
       <c r="D217" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E217" t="n">
         <v>0.001</v>
@@ -7324,12 +6022,6 @@
       </c>
       <c r="H217" t="n">
         <v>0.000000407730571638261</v>
-      </c>
-      <c r="I217" t="n">
-        <v>-426300000000000000</v>
-      </c>
-      <c r="J217" t="n">
-        <v>-173815542689391</v>
       </c>
     </row>
     <row r="218">
@@ -7337,13 +6029,13 @@
         <v>1966</v>
       </c>
       <c r="B218" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C218" t="n">
-        <v>10160000000000000000</v>
+        <v>10000000000000000000</v>
       </c>
       <c r="D218" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E218" t="n">
         <v>0.001</v>
@@ -7356,12 +6048,6 @@
       </c>
       <c r="H218" t="n">
         <v>0.000000407730571638261</v>
-      </c>
-      <c r="I218" t="n">
-        <v>-426720000000000000</v>
-      </c>
-      <c r="J218" t="n">
-        <v>-173986789529479</v>
       </c>
     </row>
     <row r="219">
@@ -7369,13 +6055,13 @@
         <v>1967</v>
       </c>
       <c r="B219" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C219" t="n">
-        <v>10170000000000000000</v>
+        <v>10000000000000000000</v>
       </c>
       <c r="D219" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E219" t="n">
         <v>0.001</v>
@@ -7388,12 +6074,6 @@
       </c>
       <c r="H219" t="n">
         <v>0.000000407730571638261</v>
-      </c>
-      <c r="I219" t="n">
-        <v>-427140000000000000</v>
-      </c>
-      <c r="J219" t="n">
-        <v>-174158036369567</v>
       </c>
     </row>
     <row r="220">
@@ -7401,13 +6081,13 @@
         <v>1968</v>
       </c>
       <c r="B220" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C220" t="n">
-        <v>10180000000000000000</v>
+        <v>10000000000000000000</v>
       </c>
       <c r="D220" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E220" t="n">
         <v>0.001</v>
@@ -7420,12 +6100,6 @@
       </c>
       <c r="H220" t="n">
         <v>0.000000407730571638261</v>
-      </c>
-      <c r="I220" t="n">
-        <v>-427560000000000000</v>
-      </c>
-      <c r="J220" t="n">
-        <v>-174329283209655</v>
       </c>
     </row>
     <row r="221">
@@ -7433,13 +6107,13 @@
         <v>1969</v>
       </c>
       <c r="B221" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C221" t="n">
-        <v>10190000000000000000</v>
+        <v>10000000000000000000</v>
       </c>
       <c r="D221" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E221" t="n">
         <v>0.001</v>
@@ -7452,12 +6126,6 @@
       </c>
       <c r="H221" t="n">
         <v>0.000000407730571638261</v>
-      </c>
-      <c r="I221" t="n">
-        <v>-427980000000000000</v>
-      </c>
-      <c r="J221" t="n">
-        <v>-174500530049743</v>
       </c>
     </row>
     <row r="222">
@@ -7465,13 +6133,13 @@
         <v>1970</v>
       </c>
       <c r="B222" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C222" t="n">
-        <v>10200000000000000000</v>
+        <v>10000000000000000000</v>
       </c>
       <c r="D222" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E222" t="n">
         <v>0.001</v>
@@ -7484,12 +6152,6 @@
       </c>
       <c r="H222" t="n">
         <v>0.000000407730571638261</v>
-      </c>
-      <c r="I222" t="n">
-        <v>-428400000000000000</v>
-      </c>
-      <c r="J222" t="n">
-        <v>-174671776889831</v>
       </c>
     </row>
     <row r="223">
@@ -7497,13 +6159,13 @@
         <v>1971</v>
       </c>
       <c r="B223" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C223" t="n">
-        <v>10210000000000000000</v>
+        <v>10000000000000000000</v>
       </c>
       <c r="D223" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E223" t="n">
         <v>0.001</v>
@@ -7516,12 +6178,6 @@
       </c>
       <c r="H223" t="n">
         <v>0.000000407730571638261</v>
-      </c>
-      <c r="I223" t="n">
-        <v>-428820000000000000</v>
-      </c>
-      <c r="J223" t="n">
-        <v>-174843023729919</v>
       </c>
     </row>
     <row r="224">
@@ -7529,13 +6185,13 @@
         <v>1972</v>
       </c>
       <c r="B224" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C224" t="n">
-        <v>10220000000000000000</v>
+        <v>10000000000000000000</v>
       </c>
       <c r="D224" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E224" t="n">
         <v>0.001</v>
@@ -7548,12 +6204,6 @@
       </c>
       <c r="H224" t="n">
         <v>0.000000407730571638261</v>
-      </c>
-      <c r="I224" t="n">
-        <v>-429240000000000000</v>
-      </c>
-      <c r="J224" t="n">
-        <v>-175014270570007</v>
       </c>
     </row>
     <row r="225">
@@ -7561,13 +6211,13 @@
         <v>1973</v>
       </c>
       <c r="B225" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C225" t="n">
-        <v>10230000000000000000</v>
+        <v>10000000000000000000</v>
       </c>
       <c r="D225" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E225" t="n">
         <v>0.001</v>
@@ -7580,12 +6230,6 @@
       </c>
       <c r="H225" t="n">
         <v>0.000000407730571638261</v>
-      </c>
-      <c r="I225" t="n">
-        <v>-429660000000000000</v>
-      </c>
-      <c r="J225" t="n">
-        <v>-175185517410095</v>
       </c>
     </row>
     <row r="226">
@@ -7593,13 +6237,13 @@
         <v>1974</v>
       </c>
       <c r="B226" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C226" t="n">
-        <v>10240000000000000000</v>
+        <v>10000000000000000000</v>
       </c>
       <c r="D226" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E226" t="n">
         <v>0.001</v>
@@ -7612,12 +6256,6 @@
       </c>
       <c r="H226" t="n">
         <v>0.000000407730571638261</v>
-      </c>
-      <c r="I226" t="n">
-        <v>-430080000000000000</v>
-      </c>
-      <c r="J226" t="n">
-        <v>-175356764250183</v>
       </c>
     </row>
     <row r="227">
@@ -7625,13 +6263,13 @@
         <v>1975</v>
       </c>
       <c r="B227" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C227" t="n">
-        <v>10250000000000000000</v>
+        <v>10000000000000000000</v>
       </c>
       <c r="D227" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E227" t="n">
         <v>0.001</v>
@@ -7644,12 +6282,6 @@
       </c>
       <c r="H227" t="n">
         <v>0.000000407730571638261</v>
-      </c>
-      <c r="I227" t="n">
-        <v>-430500000000000000</v>
-      </c>
-      <c r="J227" t="n">
-        <v>-175528011090272</v>
       </c>
     </row>
     <row r="228">
@@ -7657,13 +6289,13 @@
         <v>1976</v>
       </c>
       <c r="B228" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C228" t="n">
-        <v>10260000000000000000</v>
+        <v>10000000000000000000</v>
       </c>
       <c r="D228" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E228" t="n">
         <v>0.001</v>
@@ -7676,12 +6308,6 @@
       </c>
       <c r="H228" t="n">
         <v>0.000000407730571638261</v>
-      </c>
-      <c r="I228" t="n">
-        <v>-430920000000000000</v>
-      </c>
-      <c r="J228" t="n">
-        <v>-175699257930360</v>
       </c>
     </row>
     <row r="229">
@@ -7689,13 +6315,13 @@
         <v>1977</v>
       </c>
       <c r="B229" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C229" t="n">
-        <v>10270000000000000000</v>
+        <v>10000000000000000000</v>
       </c>
       <c r="D229" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E229" t="n">
         <v>0.001</v>
@@ -7708,12 +6334,6 @@
       </c>
       <c r="H229" t="n">
         <v>0.000000407730571638261</v>
-      </c>
-      <c r="I229" t="n">
-        <v>-431340000000000000</v>
-      </c>
-      <c r="J229" t="n">
-        <v>-175870504770448</v>
       </c>
     </row>
     <row r="230">
@@ -7721,13 +6341,13 @@
         <v>1978</v>
       </c>
       <c r="B230" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C230" t="n">
-        <v>10280000000000000000</v>
+        <v>10000000000000000000</v>
       </c>
       <c r="D230" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E230" t="n">
         <v>0.001</v>
@@ -7740,12 +6360,6 @@
       </c>
       <c r="H230" t="n">
         <v>0.000000407730571638261</v>
-      </c>
-      <c r="I230" t="n">
-        <v>-431760000000000000</v>
-      </c>
-      <c r="J230" t="n">
-        <v>-176041751610536</v>
       </c>
     </row>
     <row r="231">
@@ -7753,13 +6367,13 @@
         <v>1979</v>
       </c>
       <c r="B231" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C231" t="n">
-        <v>10290000000000000000</v>
+        <v>10000000000000000000</v>
       </c>
       <c r="D231" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E231" t="n">
         <v>0.001</v>
@@ -7772,12 +6386,6 @@
       </c>
       <c r="H231" t="n">
         <v>0.000000407730571638261</v>
-      </c>
-      <c r="I231" t="n">
-        <v>-432180000000000000</v>
-      </c>
-      <c r="J231" t="n">
-        <v>-176212998450624</v>
       </c>
     </row>
     <row r="232">
@@ -7785,13 +6393,13 @@
         <v>1980</v>
       </c>
       <c r="B232" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C232" t="n">
-        <v>10300000000000000000</v>
+        <v>10000000000000000000</v>
       </c>
       <c r="D232" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E232" t="n">
         <v>0.001</v>
@@ -7804,12 +6412,6 @@
       </c>
       <c r="H232" t="n">
         <v>0.000000407730571638261</v>
-      </c>
-      <c r="I232" t="n">
-        <v>-432600000000000000</v>
-      </c>
-      <c r="J232" t="n">
-        <v>-176384245290712</v>
       </c>
     </row>
     <row r="233">
@@ -7817,13 +6419,13 @@
         <v>1981</v>
       </c>
       <c r="B233" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C233" t="n">
-        <v>10310000000000000000</v>
+        <v>10000000000000000000</v>
       </c>
       <c r="D233" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E233" t="n">
         <v>0.001</v>
@@ -7836,12 +6438,6 @@
       </c>
       <c r="H233" t="n">
         <v>0.000000407730571638261</v>
-      </c>
-      <c r="I233" t="n">
-        <v>-433020000000000000</v>
-      </c>
-      <c r="J233" t="n">
-        <v>-176555492130800</v>
       </c>
     </row>
     <row r="234">
@@ -7849,13 +6445,13 @@
         <v>1982</v>
       </c>
       <c r="B234" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C234" t="n">
-        <v>10320000000000000000</v>
+        <v>10000000000000000000</v>
       </c>
       <c r="D234" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E234" t="n">
         <v>0.001</v>
@@ -7868,12 +6464,6 @@
       </c>
       <c r="H234" t="n">
         <v>0.000000407730571638261</v>
-      </c>
-      <c r="I234" t="n">
-        <v>-433440000000000000</v>
-      </c>
-      <c r="J234" t="n">
-        <v>-176726738970888</v>
       </c>
     </row>
     <row r="235">
@@ -7881,13 +6471,13 @@
         <v>1983</v>
       </c>
       <c r="B235" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C235" t="n">
-        <v>10330000000000000000</v>
+        <v>10000000000000000000</v>
       </c>
       <c r="D235" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E235" t="n">
         <v>0.001</v>
@@ -7900,12 +6490,6 @@
       </c>
       <c r="H235" t="n">
         <v>0.000000407730571638261</v>
-      </c>
-      <c r="I235" t="n">
-        <v>-433860000000000000</v>
-      </c>
-      <c r="J235" t="n">
-        <v>-176897985810976</v>
       </c>
     </row>
     <row r="236">
@@ -7913,13 +6497,13 @@
         <v>1984</v>
       </c>
       <c r="B236" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C236" t="n">
-        <v>10340000000000000000</v>
+        <v>10000000000000000000</v>
       </c>
       <c r="D236" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E236" t="n">
         <v>0.001</v>
@@ -7932,12 +6516,6 @@
       </c>
       <c r="H236" t="n">
         <v>0.000000407730571638261</v>
-      </c>
-      <c r="I236" t="n">
-        <v>-434280000000000000</v>
-      </c>
-      <c r="J236" t="n">
-        <v>-177069232651064</v>
       </c>
     </row>
     <row r="237">
@@ -7945,13 +6523,13 @@
         <v>1985</v>
       </c>
       <c r="B237" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C237" t="n">
-        <v>10350000000000000000</v>
+        <v>10000000000000000000</v>
       </c>
       <c r="D237" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E237" t="n">
         <v>0.001</v>
@@ -7964,12 +6542,6 @@
       </c>
       <c r="H237" t="n">
         <v>0.000000407730571638261</v>
-      </c>
-      <c r="I237" t="n">
-        <v>-434700000000000000</v>
-      </c>
-      <c r="J237" t="n">
-        <v>-177240479491152</v>
       </c>
     </row>
     <row r="238">
@@ -7977,13 +6549,13 @@
         <v>1986</v>
       </c>
       <c r="B238" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C238" t="n">
-        <v>10360000000000000000</v>
+        <v>10000000000000000000</v>
       </c>
       <c r="D238" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E238" t="n">
         <v>0.001</v>
@@ -7996,12 +6568,6 @@
       </c>
       <c r="H238" t="n">
         <v>0.000000407730571638261</v>
-      </c>
-      <c r="I238" t="n">
-        <v>-435120000000000000</v>
-      </c>
-      <c r="J238" t="n">
-        <v>-177411726331240</v>
       </c>
     </row>
     <row r="239">
@@ -8009,13 +6575,13 @@
         <v>1987</v>
       </c>
       <c r="B239" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C239" t="n">
-        <v>10370000000000000000</v>
+        <v>10000000000000000000</v>
       </c>
       <c r="D239" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E239" t="n">
         <v>0.001</v>
@@ -8028,12 +6594,6 @@
       </c>
       <c r="H239" t="n">
         <v>0.000000407730571638261</v>
-      </c>
-      <c r="I239" t="n">
-        <v>-435540000000000000</v>
-      </c>
-      <c r="J239" t="n">
-        <v>-177582973171328</v>
       </c>
     </row>
     <row r="240">
@@ -8041,13 +6601,13 @@
         <v>1988</v>
       </c>
       <c r="B240" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C240" t="n">
-        <v>10380000000000000000</v>
+        <v>10000000000000000000</v>
       </c>
       <c r="D240" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E240" t="n">
         <v>0.001</v>
@@ -8060,12 +6620,6 @@
       </c>
       <c r="H240" t="n">
         <v>0.000000407730571638261</v>
-      </c>
-      <c r="I240" t="n">
-        <v>-435960000000000000</v>
-      </c>
-      <c r="J240" t="n">
-        <v>-177754220011416</v>
       </c>
     </row>
     <row r="241">
@@ -8073,13 +6627,13 @@
         <v>1989</v>
       </c>
       <c r="B241" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C241" t="n">
-        <v>10390000000000000000</v>
+        <v>10000000000000000000</v>
       </c>
       <c r="D241" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E241" t="n">
         <v>0.001</v>
@@ -8092,12 +6646,6 @@
       </c>
       <c r="H241" t="n">
         <v>0.000000407730571638261</v>
-      </c>
-      <c r="I241" t="n">
-        <v>-436380000000000000</v>
-      </c>
-      <c r="J241" t="n">
-        <v>-177925466851505</v>
       </c>
     </row>
     <row r="242">
@@ -8105,13 +6653,13 @@
         <v>1990</v>
       </c>
       <c r="B242" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C242" t="n">
-        <v>10400000000000000000</v>
+        <v>10000000000000000000</v>
       </c>
       <c r="D242" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E242" t="n">
         <v>0.001</v>
@@ -8124,12 +6672,6 @@
       </c>
       <c r="H242" t="n">
         <v>0.000000407730571638261</v>
-      </c>
-      <c r="I242" t="n">
-        <v>-436800000000000000</v>
-      </c>
-      <c r="J242" t="n">
-        <v>-178096713691593</v>
       </c>
     </row>
     <row r="243">
@@ -8137,13 +6679,13 @@
         <v>1991</v>
       </c>
       <c r="B243" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C243" t="n">
-        <v>10410000000000000000</v>
+        <v>10000000000000000000</v>
       </c>
       <c r="D243" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E243" t="n">
         <v>0.001</v>
@@ -8156,12 +6698,6 @@
       </c>
       <c r="H243" t="n">
         <v>0.000000407730571638261</v>
-      </c>
-      <c r="I243" t="n">
-        <v>-437220000000000000</v>
-      </c>
-      <c r="J243" t="n">
-        <v>-178267960531681</v>
       </c>
     </row>
     <row r="244">
@@ -8169,13 +6705,13 @@
         <v>1992</v>
       </c>
       <c r="B244" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C244" t="n">
-        <v>10420000000000000000</v>
+        <v>10000000000000000000</v>
       </c>
       <c r="D244" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E244" t="n">
         <v>0.001</v>
@@ -8188,12 +6724,6 @@
       </c>
       <c r="H244" t="n">
         <v>0.000000407730571638261</v>
-      </c>
-      <c r="I244" t="n">
-        <v>-437640000000000000</v>
-      </c>
-      <c r="J244" t="n">
-        <v>-178439207371769</v>
       </c>
     </row>
     <row r="245">
@@ -8201,13 +6731,13 @@
         <v>1993</v>
       </c>
       <c r="B245" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C245" t="n">
-        <v>10430000000000000000</v>
+        <v>10000000000000000000</v>
       </c>
       <c r="D245" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E245" t="n">
         <v>0.001</v>
@@ -8220,12 +6750,6 @@
       </c>
       <c r="H245" t="n">
         <v>0.000000407730571638261</v>
-      </c>
-      <c r="I245" t="n">
-        <v>-438060000000000000</v>
-      </c>
-      <c r="J245" t="n">
-        <v>-178610454211857</v>
       </c>
     </row>
     <row r="246">
@@ -8233,13 +6757,13 @@
         <v>1994</v>
       </c>
       <c r="B246" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C246" t="n">
-        <v>10440000000000000000</v>
+        <v>10000000000000000000</v>
       </c>
       <c r="D246" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E246" t="n">
         <v>0.001</v>
@@ -8252,12 +6776,6 @@
       </c>
       <c r="H246" t="n">
         <v>0.000000407730571638261</v>
-      </c>
-      <c r="I246" t="n">
-        <v>-438480000000000000</v>
-      </c>
-      <c r="J246" t="n">
-        <v>-178781701051945</v>
       </c>
     </row>
     <row r="247">
@@ -8265,13 +6783,13 @@
         <v>1995</v>
       </c>
       <c r="B247" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C247" t="n">
-        <v>10450000000000000000</v>
+        <v>10000000000000000000</v>
       </c>
       <c r="D247" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E247" t="n">
         <v>0.001</v>
@@ -8284,12 +6802,6 @@
       </c>
       <c r="H247" t="n">
         <v>0.000000407730571638261</v>
-      </c>
-      <c r="I247" t="n">
-        <v>-438900000000000000</v>
-      </c>
-      <c r="J247" t="n">
-        <v>-178952947892033</v>
       </c>
     </row>
     <row r="248">
@@ -8297,13 +6809,13 @@
         <v>1996</v>
       </c>
       <c r="B248" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C248" t="n">
-        <v>10460000000000000000</v>
+        <v>10000000000000000000</v>
       </c>
       <c r="D248" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E248" t="n">
         <v>0.001</v>
@@ -8316,12 +6828,6 @@
       </c>
       <c r="H248" t="n">
         <v>0.000000407730571638261</v>
-      </c>
-      <c r="I248" t="n">
-        <v>-439320000000000000</v>
-      </c>
-      <c r="J248" t="n">
-        <v>-179124194732121</v>
       </c>
     </row>
     <row r="249">
@@ -8329,13 +6835,13 @@
         <v>1997</v>
       </c>
       <c r="B249" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C249" t="n">
-        <v>10470000000000000000</v>
+        <v>10000000000000000000</v>
       </c>
       <c r="D249" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E249" t="n">
         <v>0.001</v>
@@ -8348,12 +6854,6 @@
       </c>
       <c r="H249" t="n">
         <v>0.000000407730571638261</v>
-      </c>
-      <c r="I249" t="n">
-        <v>-439740000000000000</v>
-      </c>
-      <c r="J249" t="n">
-        <v>-179295441572209</v>
       </c>
     </row>
     <row r="250">
@@ -8361,13 +6861,13 @@
         <v>1998</v>
       </c>
       <c r="B250" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C250" t="n">
-        <v>10480000000000000000</v>
+        <v>10000000000000000000</v>
       </c>
       <c r="D250" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E250" t="n">
         <v>0.001</v>
@@ -8380,12 +6880,6 @@
       </c>
       <c r="H250" t="n">
         <v>0.000000407730571638261</v>
-      </c>
-      <c r="I250" t="n">
-        <v>-440160000000000000</v>
-      </c>
-      <c r="J250" t="n">
-        <v>-179466688412297</v>
       </c>
     </row>
     <row r="251">
@@ -8393,13 +6887,13 @@
         <v>1999</v>
       </c>
       <c r="B251" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C251" t="n">
-        <v>10490000000000000000</v>
+        <v>10000000000000000000</v>
       </c>
       <c r="D251" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E251" t="n">
         <v>0.001</v>
@@ -8412,12 +6906,6 @@
       </c>
       <c r="H251" t="n">
         <v>0.000000407730571638261</v>
-      </c>
-      <c r="I251" t="n">
-        <v>-440580000000000000</v>
-      </c>
-      <c r="J251" t="n">
-        <v>-179637935252385</v>
       </c>
     </row>
     <row r="252">
@@ -8425,13 +6913,13 @@
         <v>2000</v>
       </c>
       <c r="B252" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C252" t="n">
-        <v>10500000000000000000</v>
+        <v>10000000000000000000</v>
       </c>
       <c r="D252" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E252" t="n">
         <v>0.001</v>
@@ -8444,12 +6932,6 @@
       </c>
       <c r="H252" t="n">
         <v>0.000000407730571638261</v>
-      </c>
-      <c r="I252" t="n">
-        <v>-441000000000000000</v>
-      </c>
-      <c r="J252" t="n">
-        <v>-179809182092473</v>
       </c>
     </row>
     <row r="253">
@@ -8457,13 +6939,13 @@
         <v>2001</v>
       </c>
       <c r="B253" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C253" t="n">
-        <v>10510000000000000000</v>
+        <v>10000000000000000000</v>
       </c>
       <c r="D253" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E253" t="n">
         <v>0.001</v>
@@ -8476,12 +6958,6 @@
       </c>
       <c r="H253" t="n">
         <v>0.000000407730571638261</v>
-      </c>
-      <c r="I253" t="n">
-        <v>-441420000000000000</v>
-      </c>
-      <c r="J253" t="n">
-        <v>-179980428932561</v>
       </c>
     </row>
     <row r="254">
@@ -8489,13 +6965,13 @@
         <v>2002</v>
       </c>
       <c r="B254" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C254" t="n">
-        <v>10520000000000000000</v>
+        <v>10000000000000000000</v>
       </c>
       <c r="D254" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E254" t="n">
         <v>0.001</v>
@@ -8508,12 +6984,6 @@
       </c>
       <c r="H254" t="n">
         <v>0.000000407730571638261</v>
-      </c>
-      <c r="I254" t="n">
-        <v>-441840000000000000</v>
-      </c>
-      <c r="J254" t="n">
-        <v>-180151675772649</v>
       </c>
     </row>
     <row r="255">
@@ -8521,13 +6991,13 @@
         <v>2003</v>
       </c>
       <c r="B255" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C255" t="n">
-        <v>10530000000000000000</v>
+        <v>10000000000000000000</v>
       </c>
       <c r="D255" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E255" t="n">
         <v>0.001</v>
@@ -8540,12 +7010,6 @@
       </c>
       <c r="H255" t="n">
         <v>0.000000407730571638261</v>
-      </c>
-      <c r="I255" t="n">
-        <v>-442260000000000000</v>
-      </c>
-      <c r="J255" t="n">
-        <v>-180322922612738</v>
       </c>
     </row>
     <row r="256">
@@ -8553,13 +7017,13 @@
         <v>2004</v>
       </c>
       <c r="B256" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C256" t="n">
-        <v>10540000000000000000</v>
+        <v>10000000000000000000</v>
       </c>
       <c r="D256" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E256" t="n">
         <v>0.001</v>
@@ -8572,12 +7036,6 @@
       </c>
       <c r="H256" t="n">
         <v>0.000000407730571638261</v>
-      </c>
-      <c r="I256" t="n">
-        <v>-442680000000000000</v>
-      </c>
-      <c r="J256" t="n">
-        <v>-180494169452826</v>
       </c>
     </row>
     <row r="257">
@@ -8585,13 +7043,13 @@
         <v>2005</v>
       </c>
       <c r="B257" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C257" t="n">
-        <v>10550000000000000000</v>
+        <v>10000000000000000000</v>
       </c>
       <c r="D257" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E257" t="n">
         <v>0.001</v>
@@ -8604,12 +7062,6 @@
       </c>
       <c r="H257" t="n">
         <v>0.000000407730571638261</v>
-      </c>
-      <c r="I257" t="n">
-        <v>-443100000000000000</v>
-      </c>
-      <c r="J257" t="n">
-        <v>-180665416292914</v>
       </c>
     </row>
     <row r="258">
@@ -8617,13 +7069,13 @@
         <v>2006</v>
       </c>
       <c r="B258" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C258" t="n">
-        <v>10560000000000000000</v>
+        <v>10000000000000000000</v>
       </c>
       <c r="D258" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E258" t="n">
         <v>0.001</v>
@@ -8636,12 +7088,6 @@
       </c>
       <c r="H258" t="n">
         <v>0.000000407730571638261</v>
-      </c>
-      <c r="I258" t="n">
-        <v>-443520000000000000</v>
-      </c>
-      <c r="J258" t="n">
-        <v>-180836663133002</v>
       </c>
     </row>
     <row r="259">
@@ -8649,13 +7095,13 @@
         <v>2007</v>
       </c>
       <c r="B259" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C259" t="n">
-        <v>10570000000000000000</v>
+        <v>10000000000000000000</v>
       </c>
       <c r="D259" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E259" t="n">
         <v>0.001</v>
@@ -8668,12 +7114,6 @@
       </c>
       <c r="H259" t="n">
         <v>0.000000407730571638261</v>
-      </c>
-      <c r="I259" t="n">
-        <v>-443940000000000000</v>
-      </c>
-      <c r="J259" t="n">
-        <v>-181007909973090</v>
       </c>
     </row>
     <row r="260">
@@ -8681,13 +7121,13 @@
         <v>2008</v>
       </c>
       <c r="B260" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C260" t="n">
-        <v>10580000000000000000</v>
+        <v>10000000000000000000</v>
       </c>
       <c r="D260" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E260" t="n">
         <v>0.001</v>
@@ -8700,12 +7140,6 @@
       </c>
       <c r="H260" t="n">
         <v>0.000000407730571638261</v>
-      </c>
-      <c r="I260" t="n">
-        <v>-444360000000000000</v>
-      </c>
-      <c r="J260" t="n">
-        <v>-181179156813178</v>
       </c>
     </row>
     <row r="261">
@@ -8713,13 +7147,13 @@
         <v>2009</v>
       </c>
       <c r="B261" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C261" t="n">
-        <v>10590000000000000000</v>
+        <v>10000000000000000000</v>
       </c>
       <c r="D261" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E261" t="n">
         <v>0.001</v>
@@ -8732,12 +7166,6 @@
       </c>
       <c r="H261" t="n">
         <v>0.000000407730571638261</v>
-      </c>
-      <c r="I261" t="n">
-        <v>-444780000000000000</v>
-      </c>
-      <c r="J261" t="n">
-        <v>-181350403653266</v>
       </c>
     </row>
     <row r="262">
@@ -8745,13 +7173,13 @@
         <v>2010</v>
       </c>
       <c r="B262" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C262" t="n">
-        <v>10600000000000000000</v>
+        <v>10000000000000000000</v>
       </c>
       <c r="D262" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E262" t="n">
         <v>0.001</v>
@@ -8764,12 +7192,6 @@
       </c>
       <c r="H262" t="n">
         <v>0.000000407730571638261</v>
-      </c>
-      <c r="I262" t="n">
-        <v>-445200000000000000</v>
-      </c>
-      <c r="J262" t="n">
-        <v>-181521650493354</v>
       </c>
     </row>
     <row r="263">
@@ -8777,13 +7199,13 @@
         <v>2011</v>
       </c>
       <c r="B263" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C263" t="n">
-        <v>10610000000000000000</v>
+        <v>10000000000000000000</v>
       </c>
       <c r="D263" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E263" t="n">
         <v>0.001</v>
@@ -8796,12 +7218,6 @@
       </c>
       <c r="H263" t="n">
         <v>0.000000407730571638261</v>
-      </c>
-      <c r="I263" t="n">
-        <v>-445620000000000000</v>
-      </c>
-      <c r="J263" t="n">
-        <v>-181692897333442</v>
       </c>
     </row>
     <row r="264">
@@ -8809,13 +7225,13 @@
         <v>2012</v>
       </c>
       <c r="B264" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C264" t="n">
-        <v>10620000000000000000</v>
+        <v>10000000000000000000</v>
       </c>
       <c r="D264" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E264" t="n">
         <v>0.001</v>
@@ -8828,12 +7244,6 @@
       </c>
       <c r="H264" t="n">
         <v>0.000000407730571638261</v>
-      </c>
-      <c r="I264" t="n">
-        <v>-446040000000000000</v>
-      </c>
-      <c r="J264" t="n">
-        <v>-181864144173530</v>
       </c>
     </row>
     <row r="265">
@@ -8841,13 +7251,13 @@
         <v>2013</v>
       </c>
       <c r="B265" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C265" t="n">
-        <v>10630000000000000000</v>
+        <v>10000000000000000000</v>
       </c>
       <c r="D265" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E265" t="n">
         <v>0.001</v>
@@ -8860,12 +7270,6 @@
       </c>
       <c r="H265" t="n">
         <v>0.000000407730571638261</v>
-      </c>
-      <c r="I265" t="n">
-        <v>-446460000000000000</v>
-      </c>
-      <c r="J265" t="n">
-        <v>-182035391013618</v>
       </c>
     </row>
     <row r="266">
@@ -8873,13 +7277,13 @@
         <v>2014</v>
       </c>
       <c r="B266" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C266" t="n">
-        <v>10640000000000000000</v>
+        <v>10000000000000000000</v>
       </c>
       <c r="D266" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E266" t="n">
         <v>0.001</v>
@@ -8892,12 +7296,6 @@
       </c>
       <c r="H266" t="n">
         <v>0.000000407730571638261</v>
-      </c>
-      <c r="I266" t="n">
-        <v>-446880000000000000</v>
-      </c>
-      <c r="J266" t="n">
-        <v>-182206637853706</v>
       </c>
     </row>
     <row r="267">
@@ -8905,13 +7303,13 @@
         <v>2015</v>
       </c>
       <c r="B267" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C267" t="n">
-        <v>10650000000000000000</v>
+        <v>10000000000000000000</v>
       </c>
       <c r="D267" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E267" t="n">
         <v>0.001</v>
@@ -8924,12 +7322,6 @@
       </c>
       <c r="H267" t="n">
         <v>0.000000407730571638261</v>
-      </c>
-      <c r="I267" t="n">
-        <v>-447300000000000000</v>
-      </c>
-      <c r="J267" t="n">
-        <v>-182377884693794</v>
       </c>
     </row>
     <row r="268">
@@ -8937,13 +7329,13 @@
         <v>2016</v>
       </c>
       <c r="B268" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C268" t="n">
-        <v>10660000000000000000</v>
+        <v>10000000000000000000</v>
       </c>
       <c r="D268" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E268" t="n">
         <v>0.001</v>
@@ -8956,12 +7348,6 @@
       </c>
       <c r="H268" t="n">
         <v>0.000000407730571638261</v>
-      </c>
-      <c r="I268" t="n">
-        <v>-447720000000000000</v>
-      </c>
-      <c r="J268" t="n">
-        <v>-182549131533882</v>
       </c>
     </row>
     <row r="269">
@@ -8969,13 +7355,13 @@
         <v>2017</v>
       </c>
       <c r="B269" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C269" t="n">
-        <v>10670000000000000000</v>
+        <v>10000000000000000000</v>
       </c>
       <c r="D269" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E269" t="n">
         <v>0.001</v>
@@ -8988,12 +7374,6 @@
       </c>
       <c r="H269" t="n">
         <v>0.000000407730571638261</v>
-      </c>
-      <c r="I269" t="n">
-        <v>-448140000000000000</v>
-      </c>
-      <c r="J269" t="n">
-        <v>-182720378373970</v>
       </c>
     </row>
     <row r="270">
@@ -9001,13 +7381,13 @@
         <v>2018</v>
       </c>
       <c r="B270" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C270" t="n">
-        <v>10680000000000000000</v>
+        <v>10000000000000000000</v>
       </c>
       <c r="D270" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E270" t="n">
         <v>0.001</v>
@@ -9020,12 +7400,6 @@
       </c>
       <c r="H270" t="n">
         <v>0.000000407730571638261</v>
-      </c>
-      <c r="I270" t="n">
-        <v>-448560000000000000</v>
-      </c>
-      <c r="J270" t="n">
-        <v>-182891625214059</v>
       </c>
     </row>
     <row r="271">
@@ -9033,13 +7407,13 @@
         <v>2019</v>
       </c>
       <c r="B271" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C271" t="n">
-        <v>10690000000000000000</v>
+        <v>10000000000000000000</v>
       </c>
       <c r="D271" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E271" t="n">
         <v>0.001</v>
@@ -9052,12 +7426,6 @@
       </c>
       <c r="H271" t="n">
         <v>0.000000407730571638261</v>
-      </c>
-      <c r="I271" t="n">
-        <v>-448980000000000000</v>
-      </c>
-      <c r="J271" t="n">
-        <v>-183062872054147</v>
       </c>
     </row>
     <row r="272">
@@ -9065,13 +7433,13 @@
         <v>2020</v>
       </c>
       <c r="B272" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C272" t="n">
-        <v>10700000000000000000</v>
+        <v>10000000000000000000</v>
       </c>
       <c r="D272" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E272" t="n">
         <v>0.001</v>
@@ -9084,12 +7452,6 @@
       </c>
       <c r="H272" t="n">
         <v>0.000000407730571638261</v>
-      </c>
-      <c r="I272" t="n">
-        <v>-449400000000000000</v>
-      </c>
-      <c r="J272" t="n">
-        <v>-183234118894235</v>
       </c>
     </row>
     <row r="273">
@@ -9097,13 +7459,13 @@
         <v>2021</v>
       </c>
       <c r="B273" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C273" t="n">
-        <v>10710000000000000000</v>
+        <v>10000000000000000000</v>
       </c>
       <c r="D273" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E273" t="n">
         <v>0.001</v>
@@ -9116,12 +7478,6 @@
       </c>
       <c r="H273" t="n">
         <v>0.000000407730571638261</v>
-      </c>
-      <c r="I273" t="n">
-        <v>-449820000000000000</v>
-      </c>
-      <c r="J273" t="n">
-        <v>-183405365734323</v>
       </c>
     </row>
     <row r="274">
@@ -9129,13 +7485,13 @@
         <v>2022</v>
       </c>
       <c r="B274" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C274" t="n">
-        <v>10720000000000000000</v>
+        <v>10000000000000000000</v>
       </c>
       <c r="D274" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E274" t="n">
         <v>0.001</v>
@@ -9148,12 +7504,6 @@
       </c>
       <c r="H274" t="n">
         <v>0.000000407730571638261</v>
-      </c>
-      <c r="I274" t="n">
-        <v>-450240000000000000</v>
-      </c>
-      <c r="J274" t="n">
-        <v>-183576612574411</v>
       </c>
     </row>
     <row r="275">
@@ -9161,13 +7511,13 @@
         <v>2023</v>
       </c>
       <c r="B275" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C275" t="n">
-        <v>10730000000000000000</v>
+        <v>10000000000000000000</v>
       </c>
       <c r="D275" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E275" t="n">
         <v>0.001</v>
@@ -9180,12 +7530,6 @@
       </c>
       <c r="H275" t="n">
         <v>0.000000407730571638261</v>
-      </c>
-      <c r="I275" t="n">
-        <v>-450660000000000000</v>
-      </c>
-      <c r="J275" t="n">
-        <v>-183747859414499</v>
       </c>
     </row>
     <row r="276">
@@ -9193,13 +7537,13 @@
         <v>2024</v>
       </c>
       <c r="B276" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C276" t="n">
-        <v>10740000000000000000</v>
+        <v>10000000000000000000</v>
       </c>
       <c r="D276" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E276" t="n">
         <v>0.001</v>
@@ -9212,12 +7556,6 @@
       </c>
       <c r="H276" t="n">
         <v>0.000000407730571638261</v>
-      </c>
-      <c r="I276" t="n">
-        <v>-451080000000000000</v>
-      </c>
-      <c r="J276" t="n">
-        <v>-183919106254587</v>
       </c>
     </row>
     <row r="277">
@@ -9225,13 +7563,13 @@
         <v>2025</v>
       </c>
       <c r="B277" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C277" t="n">
-        <v>10750000000000000000</v>
+        <v>10000000000000000000</v>
       </c>
       <c r="D277" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E277" t="n">
         <v>0.001</v>
@@ -9244,12 +7582,6 @@
       </c>
       <c r="H277" t="n">
         <v>0.000000407730571638261</v>
-      </c>
-      <c r="I277" t="n">
-        <v>-451500000000000000</v>
-      </c>
-      <c r="J277" t="n">
-        <v>-184090353094675</v>
       </c>
     </row>
   </sheetData>

--- a/second_pass/wild_calc_tseries.xlsx
+++ b/second_pass/wild_calc_tseries.xlsx
@@ -5616,7 +5616,7 @@
         <v>12</v>
       </c>
       <c r="C202" t="n">
-        <v>10000000000000000000</v>
+        <v>10402219140083218432</v>
       </c>
       <c r="D202" t="s">
         <v>9</v>
@@ -5642,7 +5642,7 @@
         <v>12</v>
       </c>
       <c r="C203" t="n">
-        <v>10000000000000000000</v>
+        <v>10388349514563106816</v>
       </c>
       <c r="D203" t="s">
         <v>9</v>
@@ -5668,7 +5668,7 @@
         <v>12</v>
       </c>
       <c r="C204" t="n">
-        <v>10000000000000000000</v>
+        <v>10374479889042995200</v>
       </c>
       <c r="D204" t="s">
         <v>9</v>
@@ -5694,7 +5694,7 @@
         <v>12</v>
       </c>
       <c r="C205" t="n">
-        <v>10000000000000000000</v>
+        <v>10360610263522885632</v>
       </c>
       <c r="D205" t="s">
         <v>9</v>
@@ -5720,7 +5720,7 @@
         <v>12</v>
       </c>
       <c r="C206" t="n">
-        <v>10000000000000000000</v>
+        <v>10346740638002774016</v>
       </c>
       <c r="D206" t="s">
         <v>9</v>
@@ -5746,7 +5746,7 @@
         <v>12</v>
       </c>
       <c r="C207" t="n">
-        <v>10000000000000000000</v>
+        <v>10332871012482662400</v>
       </c>
       <c r="D207" t="s">
         <v>9</v>
@@ -5772,7 +5772,7 @@
         <v>12</v>
       </c>
       <c r="C208" t="n">
-        <v>10000000000000000000</v>
+        <v>10319001386962552832</v>
       </c>
       <c r="D208" t="s">
         <v>9</v>
@@ -5798,7 +5798,7 @@
         <v>12</v>
       </c>
       <c r="C209" t="n">
-        <v>10000000000000000000</v>
+        <v>10305131761442441216</v>
       </c>
       <c r="D209" t="s">
         <v>9</v>
@@ -5824,7 +5824,7 @@
         <v>12</v>
       </c>
       <c r="C210" t="n">
-        <v>10000000000000000000</v>
+        <v>10291262135922329600</v>
       </c>
       <c r="D210" t="s">
         <v>9</v>
@@ -5850,7 +5850,7 @@
         <v>12</v>
       </c>
       <c r="C211" t="n">
-        <v>10000000000000000000</v>
+        <v>10277392510402217984</v>
       </c>
       <c r="D211" t="s">
         <v>9</v>
@@ -5876,7 +5876,7 @@
         <v>12</v>
       </c>
       <c r="C212" t="n">
-        <v>10000000000000000000</v>
+        <v>10263522884882108416</v>
       </c>
       <c r="D212" t="s">
         <v>9</v>
@@ -5902,7 +5902,7 @@
         <v>12</v>
       </c>
       <c r="C213" t="n">
-        <v>10000000000000000000</v>
+        <v>10249653259361998848</v>
       </c>
       <c r="D213" t="s">
         <v>9</v>
@@ -5928,7 +5928,7 @@
         <v>12</v>
       </c>
       <c r="C214" t="n">
-        <v>10000000000000000000</v>
+        <v>10235783633841887232</v>
       </c>
       <c r="D214" t="s">
         <v>9</v>
@@ -5954,7 +5954,7 @@
         <v>12</v>
       </c>
       <c r="C215" t="n">
-        <v>10000000000000000000</v>
+        <v>10221914008321773568</v>
       </c>
       <c r="D215" t="s">
         <v>9</v>
@@ -5980,7 +5980,7 @@
         <v>12</v>
       </c>
       <c r="C216" t="n">
-        <v>10000000000000000000</v>
+        <v>10208044382801664000</v>
       </c>
       <c r="D216" t="s">
         <v>9</v>
@@ -6006,7 +6006,7 @@
         <v>12</v>
       </c>
       <c r="C217" t="n">
-        <v>10000000000000000000</v>
+        <v>10194174757281554432</v>
       </c>
       <c r="D217" t="s">
         <v>9</v>
@@ -6032,7 +6032,7 @@
         <v>12</v>
       </c>
       <c r="C218" t="n">
-        <v>10000000000000000000</v>
+        <v>10180305131761442816</v>
       </c>
       <c r="D218" t="s">
         <v>9</v>
@@ -6058,7 +6058,7 @@
         <v>12</v>
       </c>
       <c r="C219" t="n">
-        <v>10000000000000000000</v>
+        <v>10166435506241331200</v>
       </c>
       <c r="D219" t="s">
         <v>9</v>
@@ -6084,7 +6084,7 @@
         <v>12</v>
       </c>
       <c r="C220" t="n">
-        <v>10000000000000000000</v>
+        <v>10152565880721219584</v>
       </c>
       <c r="D220" t="s">
         <v>9</v>
@@ -6110,7 +6110,7 @@
         <v>12</v>
       </c>
       <c r="C221" t="n">
-        <v>10000000000000000000</v>
+        <v>10138696255201110016</v>
       </c>
       <c r="D221" t="s">
         <v>9</v>
@@ -6136,7 +6136,7 @@
         <v>12</v>
       </c>
       <c r="C222" t="n">
-        <v>10000000000000000000</v>
+        <v>10124826629680998400</v>
       </c>
       <c r="D222" t="s">
         <v>9</v>
@@ -6162,7 +6162,7 @@
         <v>12</v>
       </c>
       <c r="C223" t="n">
-        <v>10000000000000000000</v>
+        <v>10110957004160886784</v>
       </c>
       <c r="D223" t="s">
         <v>9</v>
@@ -6188,7 +6188,7 @@
         <v>12</v>
       </c>
       <c r="C224" t="n">
-        <v>10000000000000000000</v>
+        <v>10097087378640777216</v>
       </c>
       <c r="D224" t="s">
         <v>9</v>
@@ -6214,7 +6214,7 @@
         <v>12</v>
       </c>
       <c r="C225" t="n">
-        <v>10000000000000000000</v>
+        <v>10083217753120665600</v>
       </c>
       <c r="D225" t="s">
         <v>9</v>
@@ -6240,7 +6240,7 @@
         <v>12</v>
       </c>
       <c r="C226" t="n">
-        <v>10000000000000000000</v>
+        <v>10069348127600553984</v>
       </c>
       <c r="D226" t="s">
         <v>9</v>
@@ -6266,7 +6266,7 @@
         <v>12</v>
       </c>
       <c r="C227" t="n">
-        <v>10000000000000000000</v>
+        <v>10055478502080442368</v>
       </c>
       <c r="D227" t="s">
         <v>9</v>
@@ -6292,7 +6292,7 @@
         <v>12</v>
       </c>
       <c r="C228" t="n">
-        <v>10000000000000000000</v>
+        <v>10041608876560332800</v>
       </c>
       <c r="D228" t="s">
         <v>9</v>
@@ -6318,7 +6318,7 @@
         <v>12</v>
       </c>
       <c r="C229" t="n">
-        <v>10000000000000000000</v>
+        <v>10027739251040223232</v>
       </c>
       <c r="D229" t="s">
         <v>9</v>
@@ -6344,7 +6344,7 @@
         <v>12</v>
       </c>
       <c r="C230" t="n">
-        <v>10000000000000000000</v>
+        <v>10013869625520111616</v>
       </c>
       <c r="D230" t="s">
         <v>9</v>
@@ -6396,7 +6396,7 @@
         <v>12</v>
       </c>
       <c r="C232" t="n">
-        <v>10000000000000000000</v>
+        <v>9986130374479888384</v>
       </c>
       <c r="D232" t="s">
         <v>9</v>
@@ -6422,7 +6422,7 @@
         <v>12</v>
       </c>
       <c r="C233" t="n">
-        <v>10000000000000000000</v>
+        <v>9972260748959778816</v>
       </c>
       <c r="D233" t="s">
         <v>9</v>
@@ -6448,7 +6448,7 @@
         <v>12</v>
       </c>
       <c r="C234" t="n">
-        <v>10000000000000000000</v>
+        <v>9958391123439667200</v>
       </c>
       <c r="D234" t="s">
         <v>9</v>
@@ -6474,7 +6474,7 @@
         <v>12</v>
       </c>
       <c r="C235" t="n">
-        <v>10000000000000000000</v>
+        <v>9944521497919555584</v>
       </c>
       <c r="D235" t="s">
         <v>9</v>
@@ -6500,7 +6500,7 @@
         <v>12</v>
       </c>
       <c r="C236" t="n">
-        <v>10000000000000000000</v>
+        <v>9930651872399446016</v>
       </c>
       <c r="D236" t="s">
         <v>9</v>
@@ -6526,7 +6526,7 @@
         <v>12</v>
       </c>
       <c r="C237" t="n">
-        <v>10000000000000000000</v>
+        <v>9916782246879334400</v>
       </c>
       <c r="D237" t="s">
         <v>9</v>
@@ -6552,7 +6552,7 @@
         <v>12</v>
       </c>
       <c r="C238" t="n">
-        <v>10000000000000000000</v>
+        <v>9902912621359222784</v>
       </c>
       <c r="D238" t="s">
         <v>9</v>
@@ -6578,7 +6578,7 @@
         <v>12</v>
       </c>
       <c r="C239" t="n">
-        <v>10000000000000000000</v>
+        <v>9889042995839111168</v>
       </c>
       <c r="D239" t="s">
         <v>9</v>
@@ -6604,7 +6604,7 @@
         <v>12</v>
       </c>
       <c r="C240" t="n">
-        <v>10000000000000000000</v>
+        <v>9875173370319001600</v>
       </c>
       <c r="D240" t="s">
         <v>9</v>
@@ -6630,7 +6630,7 @@
         <v>12</v>
       </c>
       <c r="C241" t="n">
-        <v>10000000000000000000</v>
+        <v>9861303744798892032</v>
       </c>
       <c r="D241" t="s">
         <v>9</v>
@@ -6656,7 +6656,7 @@
         <v>12</v>
       </c>
       <c r="C242" t="n">
-        <v>10000000000000000000</v>
+        <v>9847434119278780416</v>
       </c>
       <c r="D242" t="s">
         <v>9</v>
@@ -6682,7 +6682,7 @@
         <v>12</v>
       </c>
       <c r="C243" t="n">
-        <v>10000000000000000000</v>
+        <v>9833564493758668800</v>
       </c>
       <c r="D243" t="s">
         <v>9</v>
@@ -6708,7 +6708,7 @@
         <v>12</v>
       </c>
       <c r="C244" t="n">
-        <v>10000000000000000000</v>
+        <v>9819694868238557184</v>
       </c>
       <c r="D244" t="s">
         <v>9</v>
@@ -6734,7 +6734,7 @@
         <v>12</v>
       </c>
       <c r="C245" t="n">
-        <v>10000000000000000000</v>
+        <v>9805825242718447616</v>
       </c>
       <c r="D245" t="s">
         <v>9</v>
@@ -6760,7 +6760,7 @@
         <v>12</v>
       </c>
       <c r="C246" t="n">
-        <v>10000000000000000000</v>
+        <v>9791955617198336000</v>
       </c>
       <c r="D246" t="s">
         <v>9</v>
@@ -6786,7 +6786,7 @@
         <v>12</v>
       </c>
       <c r="C247" t="n">
-        <v>10000000000000000000</v>
+        <v>9778085991678224384</v>
       </c>
       <c r="D247" t="s">
         <v>9</v>
@@ -6812,7 +6812,7 @@
         <v>12</v>
       </c>
       <c r="C248" t="n">
-        <v>10000000000000000000</v>
+        <v>9764216366158112768</v>
       </c>
       <c r="D248" t="s">
         <v>9</v>
@@ -6838,7 +6838,7 @@
         <v>12</v>
       </c>
       <c r="C249" t="n">
-        <v>10000000000000000000</v>
+        <v>9750346740638003200</v>
       </c>
       <c r="D249" t="s">
         <v>9</v>
@@ -6864,7 +6864,7 @@
         <v>12</v>
       </c>
       <c r="C250" t="n">
-        <v>10000000000000000000</v>
+        <v>9736477115117891584</v>
       </c>
       <c r="D250" t="s">
         <v>9</v>
@@ -6890,7 +6890,7 @@
         <v>12</v>
       </c>
       <c r="C251" t="n">
-        <v>10000000000000000000</v>
+        <v>9722607489597779968</v>
       </c>
       <c r="D251" t="s">
         <v>9</v>
@@ -6916,7 +6916,7 @@
         <v>12</v>
       </c>
       <c r="C252" t="n">
-        <v>10000000000000000000</v>
+        <v>9708737864077670400</v>
       </c>
       <c r="D252" t="s">
         <v>9</v>
@@ -6942,7 +6942,7 @@
         <v>12</v>
       </c>
       <c r="C253" t="n">
-        <v>10000000000000000000</v>
+        <v>9694868238557558784</v>
       </c>
       <c r="D253" t="s">
         <v>9</v>
@@ -6968,7 +6968,7 @@
         <v>12</v>
       </c>
       <c r="C254" t="n">
-        <v>10000000000000000000</v>
+        <v>9680998613037447168</v>
       </c>
       <c r="D254" t="s">
         <v>9</v>
@@ -6994,7 +6994,7 @@
         <v>12</v>
       </c>
       <c r="C255" t="n">
-        <v>10000000000000000000</v>
+        <v>9667128987517335552</v>
       </c>
       <c r="D255" t="s">
         <v>9</v>
@@ -7020,7 +7020,7 @@
         <v>12</v>
       </c>
       <c r="C256" t="n">
-        <v>10000000000000000000</v>
+        <v>9653259361997225984</v>
       </c>
       <c r="D256" t="s">
         <v>9</v>
@@ -7046,7 +7046,7 @@
         <v>12</v>
       </c>
       <c r="C257" t="n">
-        <v>10000000000000000000</v>
+        <v>9639389736477116416</v>
       </c>
       <c r="D257" t="s">
         <v>9</v>
@@ -7072,7 +7072,7 @@
         <v>12</v>
       </c>
       <c r="C258" t="n">
-        <v>10000000000000000000</v>
+        <v>9625520110957004800</v>
       </c>
       <c r="D258" t="s">
         <v>9</v>
@@ -7098,7 +7098,7 @@
         <v>12</v>
       </c>
       <c r="C259" t="n">
-        <v>10000000000000000000</v>
+        <v>9611650485436893184</v>
       </c>
       <c r="D259" t="s">
         <v>9</v>
@@ -7124,7 +7124,7 @@
         <v>12</v>
       </c>
       <c r="C260" t="n">
-        <v>10000000000000000000</v>
+        <v>9597780859916781568</v>
       </c>
       <c r="D260" t="s">
         <v>9</v>
@@ -7150,7 +7150,7 @@
         <v>12</v>
       </c>
       <c r="C261" t="n">
-        <v>10000000000000000000</v>
+        <v>9583911234396672000</v>
       </c>
       <c r="D261" t="s">
         <v>9</v>
@@ -7176,7 +7176,7 @@
         <v>12</v>
       </c>
       <c r="C262" t="n">
-        <v>10000000000000000000</v>
+        <v>9570041608876560384</v>
       </c>
       <c r="D262" t="s">
         <v>9</v>
@@ -7202,7 +7202,7 @@
         <v>12</v>
       </c>
       <c r="C263" t="n">
-        <v>10000000000000000000</v>
+        <v>9556171983356448768</v>
       </c>
       <c r="D263" t="s">
         <v>9</v>
@@ -7228,7 +7228,7 @@
         <v>12</v>
       </c>
       <c r="C264" t="n">
-        <v>10000000000000000000</v>
+        <v>9542302357836339200</v>
       </c>
       <c r="D264" t="s">
         <v>9</v>
@@ -7254,7 +7254,7 @@
         <v>12</v>
       </c>
       <c r="C265" t="n">
-        <v>10000000000000000000</v>
+        <v>9528432732316227584</v>
       </c>
       <c r="D265" t="s">
         <v>9</v>
@@ -7280,7 +7280,7 @@
         <v>12</v>
       </c>
       <c r="C266" t="n">
-        <v>10000000000000000000</v>
+        <v>9514563106796115968</v>
       </c>
       <c r="D266" t="s">
         <v>9</v>
@@ -7306,7 +7306,7 @@
         <v>12</v>
       </c>
       <c r="C267" t="n">
-        <v>10000000000000000000</v>
+        <v>9500693481276004352</v>
       </c>
       <c r="D267" t="s">
         <v>9</v>
@@ -7332,7 +7332,7 @@
         <v>12</v>
       </c>
       <c r="C268" t="n">
-        <v>10000000000000000000</v>
+        <v>9486823855755894784</v>
       </c>
       <c r="D268" t="s">
         <v>9</v>
@@ -7358,7 +7358,7 @@
         <v>12</v>
       </c>
       <c r="C269" t="n">
-        <v>10000000000000000000</v>
+        <v>9472954230235785216</v>
       </c>
       <c r="D269" t="s">
         <v>9</v>
@@ -7384,7 +7384,7 @@
         <v>12</v>
       </c>
       <c r="C270" t="n">
-        <v>10000000000000000000</v>
+        <v>9459084604715673600</v>
       </c>
       <c r="D270" t="s">
         <v>9</v>
@@ -7410,7 +7410,7 @@
         <v>12</v>
       </c>
       <c r="C271" t="n">
-        <v>10000000000000000000</v>
+        <v>9445214979195561984</v>
       </c>
       <c r="D271" t="s">
         <v>9</v>
@@ -7436,7 +7436,7 @@
         <v>12</v>
       </c>
       <c r="C272" t="n">
-        <v>10000000000000000000</v>
+        <v>9431345353675450368</v>
       </c>
       <c r="D272" t="s">
         <v>9</v>
@@ -7462,7 +7462,7 @@
         <v>12</v>
       </c>
       <c r="C273" t="n">
-        <v>10000000000000000000</v>
+        <v>9417475728155340800</v>
       </c>
       <c r="D273" t="s">
         <v>9</v>
@@ -7488,7 +7488,7 @@
         <v>12</v>
       </c>
       <c r="C274" t="n">
-        <v>10000000000000000000</v>
+        <v>9403606102635229184</v>
       </c>
       <c r="D274" t="s">
         <v>9</v>
@@ -7514,7 +7514,7 @@
         <v>12</v>
       </c>
       <c r="C275" t="n">
-        <v>10000000000000000000</v>
+        <v>9389736477115117568</v>
       </c>
       <c r="D275" t="s">
         <v>9</v>
@@ -7540,7 +7540,7 @@
         <v>12</v>
       </c>
       <c r="C276" t="n">
-        <v>10000000000000000000</v>
+        <v>9375866851595005952</v>
       </c>
       <c r="D276" t="s">
         <v>9</v>
@@ -7566,7 +7566,7 @@
         <v>12</v>
       </c>
       <c r="C277" t="n">
-        <v>10000000000000000000</v>
+        <v>9361997226074896384</v>
       </c>
       <c r="D277" t="s">
         <v>9</v>
